--- a/app/resource/xlsx/major_proposal_template_1_stage3.xlsx
+++ b/app/resource/xlsx/major_proposal_template_1_stage3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Bridge_Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\00-Template-Do Not Modify\00-Bridge template\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC80AD2-F3F8-4D86-AC52-9A7135167B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF25CAAE-B919-4729-9F4A-5C2730E7B9DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
   </bookViews>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="292">
   <si>
     <t>Mechanical Design Certificate</t>
   </si>
@@ -1013,9 +1013,6 @@
     <t>ATT:</t>
   </si>
   <si>
-    <t>SERVICES</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -1026,6 +1023,9 @@
   </si>
   <si>
     <t>TOTAL (include GST)</t>
+  </si>
+  <si>
+    <t>Email:</t>
   </si>
 </sst>
 </file>
@@ -1040,7 +1040,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="[$-C09]dd\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1247,22 +1247,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1280,6 +1264,14 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1823,7 +1815,7 @@
     <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="266">
+  <cellXfs count="265">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2166,25 +2158,67 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="44" fontId="16" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2194,93 +2228,162 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="32" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="30" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="32" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="30" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="32" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="30" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="44" fontId="32" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="30" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2302,119 +2405,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2437,83 +2486,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2538,27 +2548,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3889,8 +3878,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A27:Y313"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A215" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="F226" sqref="F226:F227"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A208" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="G230" sqref="G230:H231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3911,68 +3900,86 @@
     <col min="19" max="19" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="27" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B27" s="162"/>
-      <c r="C27" s="162"/>
-      <c r="D27" s="162"/>
-      <c r="E27" s="162"/>
-      <c r="F27" s="162"/>
-      <c r="G27" s="162"/>
-      <c r="H27" s="162"/>
+    <row r="27" spans="2:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="135"/>
+      <c r="C27" s="135"/>
+      <c r="D27" s="135"/>
+      <c r="E27" s="135"/>
+      <c r="F27" s="135"/>
+      <c r="G27" s="135"/>
+      <c r="H27" s="135"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="135"/>
+      <c r="C28" s="135"/>
+      <c r="D28" s="135"/>
+      <c r="E28" s="135"/>
+      <c r="F28" s="135"/>
+      <c r="G28" s="135"/>
+      <c r="H28" s="135"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="135"/>
+      <c r="C29" s="135"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="135"/>
+      <c r="F29" s="135"/>
+      <c r="G29" s="135"/>
+      <c r="H29" s="135"/>
     </row>
     <row r="31" spans="2:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C31" s="163"/>
-      <c r="D31" s="163"/>
-      <c r="E31" s="163"/>
-      <c r="F31" s="163"/>
-      <c r="G31" s="163"/>
+      <c r="C31" s="140"/>
+      <c r="D31" s="140"/>
+      <c r="E31" s="140"/>
+      <c r="F31" s="140"/>
+      <c r="G31" s="140"/>
     </row>
     <row r="37" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A37" s="134" t="s">
         <v>229</v>
       </c>
-      <c r="F37" s="166" t="s">
+      <c r="F37" s="143" t="s">
         <v>232</v>
       </c>
-      <c r="G37" s="166"/>
-      <c r="H37" s="166"/>
-      <c r="I37" s="166"/>
+      <c r="G37" s="143"/>
+      <c r="H37" s="143"/>
+      <c r="I37" s="143"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F38" s="165" t="s">
+      <c r="F38" s="142" t="s">
         <v>67</v>
       </c>
-      <c r="G38" s="165"/>
-      <c r="H38" s="165"/>
-      <c r="I38" s="165"/>
+      <c r="G38" s="142"/>
+      <c r="H38" s="142"/>
+      <c r="I38" s="142"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="35"/>
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
-      <c r="F39" s="165" t="s">
+      <c r="F39" s="142" t="s">
         <v>5</v>
       </c>
-      <c r="G39" s="165"/>
-      <c r="H39" s="165"/>
-      <c r="I39" s="165"/>
+      <c r="G39" s="142"/>
+      <c r="H39" s="142"/>
+      <c r="I39" s="142"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F40" s="165" t="s">
+      <c r="F40" s="142" t="s">
         <v>230</v>
       </c>
-      <c r="G40" s="165"/>
-      <c r="H40" s="165"/>
-      <c r="I40" s="165"/>
+      <c r="G40" s="142"/>
+      <c r="H40" s="142"/>
+      <c r="I40" s="142"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F41" s="165" t="s">
+      <c r="F41" s="142" t="s">
         <v>231</v>
       </c>
-      <c r="G41" s="165"/>
-      <c r="H41" s="165"/>
-      <c r="I41" s="165"/>
+      <c r="G41" s="142"/>
+      <c r="H41" s="142"/>
+      <c r="I41" s="142"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
@@ -3980,10 +3987,10 @@
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="164"/>
-      <c r="B43" s="164"/>
-      <c r="C43" s="164"/>
-      <c r="D43" s="164"/>
+      <c r="A43" s="141"/>
+      <c r="B43" s="141"/>
+      <c r="C43" s="141"/>
+      <c r="D43" s="141"/>
       <c r="I43" s="33" t="s">
         <v>243</v>
       </c>
@@ -3992,16 +3999,16 @@
       <c r="A45" s="56" t="s">
         <v>286</v>
       </c>
-      <c r="B45" s="154"/>
-      <c r="C45" s="154" t="e">
+      <c r="B45" s="136"/>
+      <c r="C45" s="136" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
       <c r="G45" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="H45" s="154"/>
-      <c r="I45" s="154"/>
+      <c r="H45" s="136"/>
+      <c r="I45" s="136"/>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D46" s="40"/>
@@ -4009,10 +4016,10 @@
       <c r="G46" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="H46" s="167"/>
-      <c r="I46" s="167"/>
-      <c r="K46" s="154"/>
-      <c r="L46" s="154"/>
+      <c r="H46" s="144"/>
+      <c r="I46" s="144"/>
+      <c r="K46" s="136"/>
+      <c r="L46" s="136"/>
       <c r="M46" s="40"/>
       <c r="N46" s="40"/>
       <c r="O46" s="45"/>
@@ -4075,15 +4082,15 @@
       <c r="P50" s="39"/>
     </row>
     <row r="51" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="168"/>
-      <c r="B51" s="168"/>
-      <c r="C51" s="168"/>
-      <c r="D51" s="168"/>
-      <c r="E51" s="168"/>
-      <c r="F51" s="168"/>
-      <c r="G51" s="168"/>
-      <c r="H51" s="168"/>
-      <c r="I51" s="168"/>
+      <c r="A51" s="145"/>
+      <c r="B51" s="145"/>
+      <c r="C51" s="145"/>
+      <c r="D51" s="145"/>
+      <c r="E51" s="145"/>
+      <c r="F51" s="145"/>
+      <c r="G51" s="145"/>
+      <c r="H51" s="145"/>
+      <c r="I51" s="145"/>
       <c r="K51" s="44"/>
       <c r="L51" s="11"/>
       <c r="M51" s="11"/>
@@ -4108,26 +4115,26 @@
       <c r="P52" s="36"/>
     </row>
     <row r="53" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="137"/>
-      <c r="B53" s="137"/>
-      <c r="C53" s="137"/>
-      <c r="D53" s="137"/>
-      <c r="E53" s="137"/>
-      <c r="F53" s="137"/>
-      <c r="G53" s="137"/>
-      <c r="H53" s="137"/>
-      <c r="I53" s="137"/>
+      <c r="A53" s="139"/>
+      <c r="B53" s="139"/>
+      <c r="C53" s="139"/>
+      <c r="D53" s="139"/>
+      <c r="E53" s="139"/>
+      <c r="F53" s="139"/>
+      <c r="G53" s="139"/>
+      <c r="H53" s="139"/>
+      <c r="I53" s="139"/>
     </row>
     <row r="54" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="137"/>
-      <c r="B54" s="137"/>
-      <c r="C54" s="137"/>
-      <c r="D54" s="137"/>
-      <c r="E54" s="137"/>
-      <c r="F54" s="137"/>
-      <c r="G54" s="137"/>
-      <c r="H54" s="137"/>
-      <c r="I54" s="137"/>
+      <c r="A54" s="139"/>
+      <c r="B54" s="139"/>
+      <c r="C54" s="139"/>
+      <c r="D54" s="139"/>
+      <c r="E54" s="139"/>
+      <c r="F54" s="139"/>
+      <c r="G54" s="139"/>
+      <c r="H54" s="139"/>
+      <c r="I54" s="139"/>
       <c r="J54" s="29"/>
       <c r="K54" s="29"/>
       <c r="L54" s="29"/>
@@ -4135,93 +4142,93 @@
       <c r="N54" s="29"/>
       <c r="O54" s="29"/>
       <c r="P54" s="29"/>
-      <c r="Q54" s="159"/>
-      <c r="R54" s="159"/>
-      <c r="S54" s="159"/>
-      <c r="T54" s="159"/>
-      <c r="U54" s="159"/>
-      <c r="V54" s="159"/>
-      <c r="W54" s="159"/>
-      <c r="X54" s="159"/>
+      <c r="Q54" s="147"/>
+      <c r="R54" s="147"/>
+      <c r="S54" s="147"/>
+      <c r="T54" s="147"/>
+      <c r="U54" s="147"/>
+      <c r="V54" s="147"/>
+      <c r="W54" s="147"/>
+      <c r="X54" s="147"/>
     </row>
     <row r="55" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="137" t="s">
+      <c r="A56" s="139" t="s">
         <v>244</v>
       </c>
-      <c r="B56" s="137"/>
-      <c r="C56" s="137"/>
-      <c r="D56" s="137"/>
-      <c r="E56" s="137"/>
-      <c r="F56" s="137"/>
-      <c r="G56" s="137"/>
-      <c r="H56" s="137"/>
-      <c r="I56" s="137"/>
-      <c r="M56" s="160"/>
-      <c r="N56" s="160"/>
-      <c r="O56" s="160"/>
-      <c r="P56" s="160"/>
-      <c r="Q56" s="160"/>
-      <c r="R56" s="160"/>
-      <c r="S56" s="160"/>
-      <c r="T56" s="160"/>
+      <c r="B56" s="139"/>
+      <c r="C56" s="139"/>
+      <c r="D56" s="139"/>
+      <c r="E56" s="139"/>
+      <c r="F56" s="139"/>
+      <c r="G56" s="139"/>
+      <c r="H56" s="139"/>
+      <c r="I56" s="139"/>
+      <c r="M56" s="148"/>
+      <c r="N56" s="148"/>
+      <c r="O56" s="148"/>
+      <c r="P56" s="148"/>
+      <c r="Q56" s="148"/>
+      <c r="R56" s="148"/>
+      <c r="S56" s="148"/>
+      <c r="T56" s="148"/>
     </row>
     <row r="57" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="137"/>
-      <c r="B57" s="137"/>
-      <c r="C57" s="137"/>
-      <c r="D57" s="137"/>
-      <c r="E57" s="137"/>
-      <c r="F57" s="137"/>
-      <c r="G57" s="137"/>
-      <c r="H57" s="137"/>
-      <c r="I57" s="137"/>
-      <c r="M57" s="160"/>
-      <c r="N57" s="160"/>
-      <c r="O57" s="160"/>
-      <c r="P57" s="160"/>
-      <c r="Q57" s="160"/>
-      <c r="R57" s="160"/>
-      <c r="S57" s="160"/>
-      <c r="T57" s="160"/>
+      <c r="A57" s="139"/>
+      <c r="B57" s="139"/>
+      <c r="C57" s="139"/>
+      <c r="D57" s="139"/>
+      <c r="E57" s="139"/>
+      <c r="F57" s="139"/>
+      <c r="G57" s="139"/>
+      <c r="H57" s="139"/>
+      <c r="I57" s="139"/>
+      <c r="M57" s="148"/>
+      <c r="N57" s="148"/>
+      <c r="O57" s="148"/>
+      <c r="P57" s="148"/>
+      <c r="Q57" s="148"/>
+      <c r="R57" s="148"/>
+      <c r="S57" s="148"/>
+      <c r="T57" s="148"/>
     </row>
     <row r="58" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="137"/>
-      <c r="B58" s="137"/>
-      <c r="C58" s="137"/>
-      <c r="D58" s="137"/>
-      <c r="E58" s="137"/>
-      <c r="F58" s="137"/>
-      <c r="G58" s="137"/>
-      <c r="H58" s="137"/>
-      <c r="I58" s="137"/>
-      <c r="M58" s="160"/>
-      <c r="N58" s="160"/>
-      <c r="O58" s="160"/>
-      <c r="P58" s="160"/>
-      <c r="Q58" s="160"/>
-      <c r="R58" s="160"/>
-      <c r="S58" s="160"/>
-      <c r="T58" s="160"/>
+      <c r="A58" s="139"/>
+      <c r="B58" s="139"/>
+      <c r="C58" s="139"/>
+      <c r="D58" s="139"/>
+      <c r="E58" s="139"/>
+      <c r="F58" s="139"/>
+      <c r="G58" s="139"/>
+      <c r="H58" s="139"/>
+      <c r="I58" s="139"/>
+      <c r="M58" s="148"/>
+      <c r="N58" s="148"/>
+      <c r="O58" s="148"/>
+      <c r="P58" s="148"/>
+      <c r="Q58" s="148"/>
+      <c r="R58" s="148"/>
+      <c r="S58" s="148"/>
+      <c r="T58" s="148"/>
     </row>
     <row r="59" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="137"/>
-      <c r="B59" s="137"/>
-      <c r="C59" s="137"/>
-      <c r="D59" s="137"/>
-      <c r="E59" s="137"/>
-      <c r="F59" s="137"/>
-      <c r="G59" s="137"/>
-      <c r="H59" s="137"/>
-      <c r="I59" s="137"/>
-      <c r="M59" s="160"/>
-      <c r="N59" s="160"/>
-      <c r="O59" s="160"/>
-      <c r="P59" s="160"/>
-      <c r="Q59" s="160"/>
-      <c r="R59" s="160"/>
-      <c r="S59" s="160"/>
-      <c r="T59" s="160"/>
+      <c r="A59" s="139"/>
+      <c r="B59" s="139"/>
+      <c r="C59" s="139"/>
+      <c r="D59" s="139"/>
+      <c r="E59" s="139"/>
+      <c r="F59" s="139"/>
+      <c r="G59" s="139"/>
+      <c r="H59" s="139"/>
+      <c r="I59" s="139"/>
+      <c r="M59" s="148"/>
+      <c r="N59" s="148"/>
+      <c r="O59" s="148"/>
+      <c r="P59" s="148"/>
+      <c r="Q59" s="148"/>
+      <c r="R59" s="148"/>
+      <c r="S59" s="148"/>
+      <c r="T59" s="148"/>
     </row>
     <row r="60" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="16"/>
@@ -4239,30 +4246,30 @@
       <c r="P60" s="42"/>
     </row>
     <row r="61" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="137" t="s">
+      <c r="A61" s="139" t="s">
         <v>245</v>
       </c>
-      <c r="B61" s="137"/>
-      <c r="C61" s="137"/>
-      <c r="D61" s="137"/>
-      <c r="E61" s="137"/>
-      <c r="F61" s="137"/>
-      <c r="G61" s="137"/>
-      <c r="H61" s="137"/>
-      <c r="I61" s="137"/>
+      <c r="B61" s="139"/>
+      <c r="C61" s="139"/>
+      <c r="D61" s="139"/>
+      <c r="E61" s="139"/>
+      <c r="F61" s="139"/>
+      <c r="G61" s="139"/>
+      <c r="H61" s="139"/>
+      <c r="I61" s="139"/>
       <c r="K61" s="11"/>
       <c r="L61" s="11"/>
     </row>
     <row r="62" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="137"/>
-      <c r="B62" s="137"/>
-      <c r="C62" s="137"/>
-      <c r="D62" s="137"/>
-      <c r="E62" s="137"/>
-      <c r="F62" s="137"/>
-      <c r="G62" s="137"/>
-      <c r="H62" s="137"/>
-      <c r="I62" s="137"/>
+      <c r="A62" s="139"/>
+      <c r="B62" s="139"/>
+      <c r="C62" s="139"/>
+      <c r="D62" s="139"/>
+      <c r="E62" s="139"/>
+      <c r="F62" s="139"/>
+      <c r="G62" s="139"/>
+      <c r="H62" s="139"/>
+      <c r="I62" s="139"/>
       <c r="K62" s="35"/>
       <c r="M62" s="35"/>
       <c r="R62" s="35"/>
@@ -4274,16 +4281,16 @@
         <f t="shared" ref="A63:A66" si="0">IF(B63&lt;&gt;"","•","")</f>
         <v>•</v>
       </c>
-      <c r="B63" s="137" t="s">
+      <c r="B63" s="139" t="s">
         <v>281</v>
       </c>
-      <c r="C63" s="137"/>
-      <c r="D63" s="137"/>
-      <c r="E63" s="137"/>
-      <c r="F63" s="137"/>
-      <c r="G63" s="137"/>
-      <c r="H63" s="137"/>
-      <c r="I63" s="137"/>
+      <c r="C63" s="139"/>
+      <c r="D63" s="139"/>
+      <c r="E63" s="139"/>
+      <c r="F63" s="139"/>
+      <c r="G63" s="139"/>
+      <c r="H63" s="139"/>
+      <c r="I63" s="139"/>
       <c r="U63" s="47"/>
       <c r="V63" s="47"/>
       <c r="W63" s="48"/>
@@ -4293,32 +4300,32 @@
         <f t="shared" si="0"/>
         <v>•</v>
       </c>
-      <c r="B64" s="137" t="s">
+      <c r="B64" s="139" t="s">
         <v>247</v>
       </c>
-      <c r="C64" s="137"/>
-      <c r="D64" s="137"/>
-      <c r="E64" s="137"/>
-      <c r="F64" s="137"/>
-      <c r="G64" s="137"/>
-      <c r="H64" s="137"/>
-      <c r="I64" s="137"/>
+      <c r="C64" s="139"/>
+      <c r="D64" s="139"/>
+      <c r="E64" s="139"/>
+      <c r="F64" s="139"/>
+      <c r="G64" s="139"/>
+      <c r="H64" s="139"/>
+      <c r="I64" s="139"/>
     </row>
     <row r="65" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="31" t="str">
         <f t="shared" si="0"/>
         <v>•</v>
       </c>
-      <c r="B65" s="137" t="s">
+      <c r="B65" s="139" t="s">
         <v>248</v>
       </c>
-      <c r="C65" s="137"/>
-      <c r="D65" s="137"/>
-      <c r="E65" s="137"/>
-      <c r="F65" s="137"/>
-      <c r="G65" s="137"/>
-      <c r="H65" s="137"/>
-      <c r="I65" s="137"/>
+      <c r="C65" s="139"/>
+      <c r="D65" s="139"/>
+      <c r="E65" s="139"/>
+      <c r="F65" s="139"/>
+      <c r="G65" s="139"/>
+      <c r="H65" s="139"/>
+      <c r="I65" s="139"/>
       <c r="K65" s="36"/>
       <c r="L65" s="33"/>
     </row>
@@ -4327,16 +4334,16 @@
         <f t="shared" si="0"/>
         <v>•</v>
       </c>
-      <c r="B66" s="137" t="s">
+      <c r="B66" s="139" t="s">
         <v>249</v>
       </c>
-      <c r="C66" s="137"/>
-      <c r="D66" s="137"/>
-      <c r="E66" s="137"/>
-      <c r="F66" s="137"/>
-      <c r="G66" s="137"/>
-      <c r="H66" s="137"/>
-      <c r="I66" s="137"/>
+      <c r="C66" s="139"/>
+      <c r="D66" s="139"/>
+      <c r="E66" s="139"/>
+      <c r="F66" s="139"/>
+      <c r="G66" s="139"/>
+      <c r="H66" s="139"/>
+      <c r="I66" s="139"/>
       <c r="K66" s="11"/>
       <c r="L66" s="11"/>
       <c r="Q66" s="43"/>
@@ -4357,29 +4364,29 @@
       <c r="V67" s="43"/>
     </row>
     <row r="68" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="137" t="s">
+      <c r="A68" s="139" t="s">
         <v>246</v>
       </c>
-      <c r="B68" s="137"/>
-      <c r="C68" s="137"/>
-      <c r="D68" s="137"/>
-      <c r="E68" s="137"/>
-      <c r="F68" s="137"/>
-      <c r="G68" s="137"/>
-      <c r="H68" s="137"/>
-      <c r="I68" s="137"/>
+      <c r="B68" s="139"/>
+      <c r="C68" s="139"/>
+      <c r="D68" s="139"/>
+      <c r="E68" s="139"/>
+      <c r="F68" s="139"/>
+      <c r="G68" s="139"/>
+      <c r="H68" s="139"/>
+      <c r="I68" s="139"/>
       <c r="W68" s="43"/>
     </row>
     <row r="69" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="137"/>
-      <c r="B69" s="137"/>
-      <c r="C69" s="137"/>
-      <c r="D69" s="137"/>
-      <c r="E69" s="137"/>
-      <c r="F69" s="137"/>
-      <c r="G69" s="137"/>
-      <c r="H69" s="137"/>
-      <c r="I69" s="137"/>
+      <c r="A69" s="139"/>
+      <c r="B69" s="139"/>
+      <c r="C69" s="139"/>
+      <c r="D69" s="139"/>
+      <c r="E69" s="139"/>
+      <c r="F69" s="139"/>
+      <c r="G69" s="139"/>
+      <c r="H69" s="139"/>
+      <c r="I69" s="139"/>
       <c r="M69" s="35"/>
       <c r="W69" s="43"/>
     </row>
@@ -4528,24 +4535,24 @@
       </c>
     </row>
     <row r="86" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="137"/>
-      <c r="C86" s="137"/>
-      <c r="D86" s="137"/>
-      <c r="E86" s="137"/>
-      <c r="F86" s="137"/>
-      <c r="G86" s="137"/>
-      <c r="H86" s="137"/>
-      <c r="I86" s="137"/>
+      <c r="B86" s="139"/>
+      <c r="C86" s="139"/>
+      <c r="D86" s="139"/>
+      <c r="E86" s="139"/>
+      <c r="F86" s="139"/>
+      <c r="G86" s="139"/>
+      <c r="H86" s="139"/>
+      <c r="I86" s="139"/>
     </row>
     <row r="87" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="137"/>
-      <c r="C87" s="137"/>
-      <c r="D87" s="137"/>
-      <c r="E87" s="137"/>
-      <c r="F87" s="137"/>
-      <c r="G87" s="137"/>
-      <c r="H87" s="137"/>
-      <c r="I87" s="137"/>
+      <c r="B87" s="139"/>
+      <c r="C87" s="139"/>
+      <c r="D87" s="139"/>
+      <c r="E87" s="139"/>
+      <c r="F87" s="139"/>
+      <c r="G87" s="139"/>
+      <c r="H87" s="139"/>
+      <c r="I87" s="139"/>
     </row>
     <row r="88" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="89" spans="1:18" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4594,16 +4601,16 @@
     </row>
     <row r="91" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="137" t="s">
+      <c r="B91" s="139" t="s">
         <v>250</v>
       </c>
-      <c r="C91" s="137"/>
-      <c r="D91" s="137"/>
-      <c r="E91" s="137"/>
-      <c r="F91" s="137"/>
-      <c r="G91" s="137"/>
-      <c r="H91" s="137"/>
-      <c r="I91" s="137"/>
+      <c r="C91" s="139"/>
+      <c r="D91" s="139"/>
+      <c r="E91" s="139"/>
+      <c r="F91" s="139"/>
+      <c r="G91" s="139"/>
+      <c r="H91" s="139"/>
+      <c r="I91" s="139"/>
       <c r="L91" s="36"/>
       <c r="M91" s="36"/>
       <c r="N91" s="36"/>
@@ -4612,25 +4619,25 @@
     </row>
     <row r="92" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
-      <c r="B92" s="137"/>
-      <c r="C92" s="137"/>
-      <c r="D92" s="137"/>
-      <c r="E92" s="137"/>
-      <c r="F92" s="137"/>
-      <c r="G92" s="137"/>
-      <c r="H92" s="137"/>
-      <c r="I92" s="137"/>
+      <c r="B92" s="139"/>
+      <c r="C92" s="139"/>
+      <c r="D92" s="139"/>
+      <c r="E92" s="139"/>
+      <c r="F92" s="139"/>
+      <c r="G92" s="139"/>
+      <c r="H92" s="139"/>
+      <c r="I92" s="139"/>
     </row>
     <row r="93" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
-      <c r="B93" s="137"/>
-      <c r="C93" s="137"/>
-      <c r="D93" s="137"/>
-      <c r="E93" s="137"/>
-      <c r="F93" s="137"/>
-      <c r="G93" s="137"/>
-      <c r="H93" s="137"/>
-      <c r="I93" s="137"/>
+      <c r="B93" s="139"/>
+      <c r="C93" s="139"/>
+      <c r="D93" s="139"/>
+      <c r="E93" s="139"/>
+      <c r="F93" s="139"/>
+      <c r="G93" s="139"/>
+      <c r="H93" s="139"/>
+      <c r="I93" s="139"/>
     </row>
     <row r="94" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
@@ -5025,16 +5032,16 @@
         <f t="shared" ref="L134:L145" si="2">IF(M134&lt;&gt;"","•","")</f>
         <v>•</v>
       </c>
-      <c r="M134" s="158" t="s">
+      <c r="M134" s="138" t="s">
         <v>251</v>
       </c>
-      <c r="N134" s="158"/>
-      <c r="O134" s="158"/>
-      <c r="P134" s="158"/>
-      <c r="Q134" s="158"/>
-      <c r="R134" s="158"/>
-      <c r="S134" s="158"/>
-      <c r="T134" s="158"/>
+      <c r="N134" s="138"/>
+      <c r="O134" s="138"/>
+      <c r="P134" s="138"/>
+      <c r="Q134" s="138"/>
+      <c r="R134" s="138"/>
+      <c r="S134" s="138"/>
+      <c r="T134" s="138"/>
     </row>
     <row r="135" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="31"/>
@@ -5042,16 +5049,16 @@
         <f t="shared" si="2"/>
         <v>•</v>
       </c>
-      <c r="M135" s="158" t="s">
+      <c r="M135" s="138" t="s">
         <v>252</v>
       </c>
-      <c r="N135" s="158"/>
-      <c r="O135" s="158"/>
-      <c r="P135" s="158"/>
-      <c r="Q135" s="158"/>
-      <c r="R135" s="158"/>
-      <c r="S135" s="158"/>
-      <c r="T135" s="158"/>
+      <c r="N135" s="138"/>
+      <c r="O135" s="138"/>
+      <c r="P135" s="138"/>
+      <c r="Q135" s="138"/>
+      <c r="R135" s="138"/>
+      <c r="S135" s="138"/>
+      <c r="T135" s="138"/>
     </row>
     <row r="136" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="31" t="str">
@@ -5108,16 +5115,16 @@
         <f t="shared" si="2"/>
         <v>•</v>
       </c>
-      <c r="M139" s="137" t="s">
+      <c r="M139" s="139" t="s">
         <v>284</v>
       </c>
-      <c r="N139" s="137"/>
-      <c r="O139" s="137"/>
-      <c r="P139" s="137"/>
-      <c r="Q139" s="137"/>
-      <c r="R139" s="137"/>
-      <c r="S139" s="137"/>
-      <c r="T139" s="137"/>
+      <c r="N139" s="139"/>
+      <c r="O139" s="139"/>
+      <c r="P139" s="139"/>
+      <c r="Q139" s="139"/>
+      <c r="R139" s="139"/>
+      <c r="S139" s="139"/>
+      <c r="T139" s="139"/>
     </row>
     <row r="140" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="31"/>
@@ -5164,16 +5171,16 @@
         <f t="shared" si="2"/>
         <v>•</v>
       </c>
-      <c r="M143" s="158" t="s">
+      <c r="M143" s="138" t="s">
         <v>255</v>
       </c>
-      <c r="N143" s="158"/>
-      <c r="O143" s="158"/>
-      <c r="P143" s="158"/>
-      <c r="Q143" s="158"/>
-      <c r="R143" s="158"/>
-      <c r="S143" s="158"/>
-      <c r="T143" s="158"/>
+      <c r="N143" s="138"/>
+      <c r="O143" s="138"/>
+      <c r="P143" s="138"/>
+      <c r="Q143" s="138"/>
+      <c r="R143" s="138"/>
+      <c r="S143" s="138"/>
+      <c r="T143" s="138"/>
     </row>
     <row r="144" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="31"/>
@@ -5193,28 +5200,28 @@
         <f t="shared" si="2"/>
         <v>•</v>
       </c>
-      <c r="M145" s="158" t="s">
+      <c r="M145" s="138" t="s">
         <v>256</v>
       </c>
-      <c r="N145" s="158"/>
-      <c r="O145" s="158"/>
-      <c r="P145" s="158"/>
-      <c r="Q145" s="158"/>
-      <c r="R145" s="158"/>
-      <c r="S145" s="158"/>
-      <c r="T145" s="158"/>
+      <c r="N145" s="138"/>
+      <c r="O145" s="138"/>
+      <c r="P145" s="138"/>
+      <c r="Q145" s="138"/>
+      <c r="R145" s="138"/>
+      <c r="S145" s="138"/>
+      <c r="T145" s="138"/>
     </row>
     <row r="146" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="31"/>
       <c r="L146" s="31"/>
-      <c r="M146" s="158"/>
-      <c r="N146" s="158"/>
-      <c r="O146" s="158"/>
-      <c r="P146" s="158"/>
-      <c r="Q146" s="158"/>
-      <c r="R146" s="158"/>
-      <c r="S146" s="158"/>
-      <c r="T146" s="158"/>
+      <c r="M146" s="138"/>
+      <c r="N146" s="138"/>
+      <c r="O146" s="138"/>
+      <c r="P146" s="138"/>
+      <c r="Q146" s="138"/>
+      <c r="R146" s="138"/>
+      <c r="S146" s="138"/>
+      <c r="T146" s="138"/>
     </row>
     <row r="147" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="31"/>
@@ -5746,16 +5753,16 @@
     </row>
     <row r="179" spans="1:17" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="59"/>
-      <c r="B179" s="137" t="s">
+      <c r="B179" s="139" t="s">
         <v>283</v>
       </c>
-      <c r="C179" s="137"/>
-      <c r="D179" s="137"/>
-      <c r="E179" s="137"/>
-      <c r="F179" s="137"/>
-      <c r="G179" s="137"/>
-      <c r="H179" s="137"/>
-      <c r="I179" s="137"/>
+      <c r="C179" s="139"/>
+      <c r="D179" s="139"/>
+      <c r="E179" s="139"/>
+      <c r="F179" s="139"/>
+      <c r="G179" s="139"/>
+      <c r="H179" s="139"/>
+      <c r="I179" s="139"/>
       <c r="K179" s="58"/>
       <c r="N179" s="42"/>
       <c r="O179" s="42"/>
@@ -5763,14 +5770,14 @@
     </row>
     <row r="180" spans="1:17" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="59"/>
-      <c r="B180" s="137"/>
-      <c r="C180" s="137"/>
-      <c r="D180" s="137"/>
-      <c r="E180" s="137"/>
-      <c r="F180" s="137"/>
-      <c r="G180" s="137"/>
-      <c r="H180" s="137"/>
-      <c r="I180" s="137"/>
+      <c r="B180" s="139"/>
+      <c r="C180" s="139"/>
+      <c r="D180" s="139"/>
+      <c r="E180" s="139"/>
+      <c r="F180" s="139"/>
+      <c r="G180" s="139"/>
+      <c r="H180" s="139"/>
+      <c r="I180" s="139"/>
       <c r="K180" s="58"/>
       <c r="M180" s="42"/>
       <c r="N180" s="42"/>
@@ -5779,14 +5786,14 @@
     </row>
     <row r="181" spans="1:17" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="59"/>
-      <c r="B181" s="137"/>
-      <c r="C181" s="137"/>
-      <c r="D181" s="137"/>
-      <c r="E181" s="137"/>
-      <c r="F181" s="137"/>
-      <c r="G181" s="137"/>
-      <c r="H181" s="137"/>
-      <c r="I181" s="137"/>
+      <c r="B181" s="139"/>
+      <c r="C181" s="139"/>
+      <c r="D181" s="139"/>
+      <c r="E181" s="139"/>
+      <c r="F181" s="139"/>
+      <c r="G181" s="139"/>
+      <c r="H181" s="139"/>
+      <c r="I181" s="139"/>
       <c r="K181" s="58"/>
       <c r="M181" s="42"/>
       <c r="N181" s="42"/>
@@ -5795,14 +5802,14 @@
     </row>
     <row r="182" spans="1:17" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="59"/>
-      <c r="B182" s="137"/>
-      <c r="C182" s="137"/>
-      <c r="D182" s="137"/>
-      <c r="E182" s="137"/>
-      <c r="F182" s="137"/>
-      <c r="G182" s="137"/>
-      <c r="H182" s="137"/>
-      <c r="I182" s="137"/>
+      <c r="B182" s="139"/>
+      <c r="C182" s="139"/>
+      <c r="D182" s="139"/>
+      <c r="E182" s="139"/>
+      <c r="F182" s="139"/>
+      <c r="G182" s="139"/>
+      <c r="H182" s="139"/>
+      <c r="I182" s="139"/>
       <c r="K182" s="58"/>
       <c r="M182" s="42"/>
       <c r="N182" s="42"/>
@@ -5845,16 +5852,16 @@
     </row>
     <row r="185" spans="1:17" s="16" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="59"/>
-      <c r="B185" s="137" t="s">
+      <c r="B185" s="139" t="s">
         <v>221</v>
       </c>
-      <c r="C185" s="137"/>
-      <c r="D185" s="137"/>
-      <c r="E185" s="137"/>
-      <c r="F185" s="137"/>
-      <c r="G185" s="137"/>
-      <c r="H185" s="137"/>
-      <c r="I185" s="137"/>
+      <c r="C185" s="139"/>
+      <c r="D185" s="139"/>
+      <c r="E185" s="139"/>
+      <c r="F185" s="139"/>
+      <c r="G185" s="139"/>
+      <c r="H185" s="139"/>
+      <c r="I185" s="139"/>
       <c r="K185" s="58"/>
       <c r="M185" s="42"/>
       <c r="N185" s="42"/>
@@ -5863,14 +5870,14 @@
     </row>
     <row r="186" spans="1:17" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="59"/>
-      <c r="B186" s="137"/>
-      <c r="C186" s="137"/>
-      <c r="D186" s="137"/>
-      <c r="E186" s="137"/>
-      <c r="F186" s="137"/>
-      <c r="G186" s="137"/>
-      <c r="H186" s="137"/>
-      <c r="I186" s="137"/>
+      <c r="B186" s="139"/>
+      <c r="C186" s="139"/>
+      <c r="D186" s="139"/>
+      <c r="E186" s="139"/>
+      <c r="F186" s="139"/>
+      <c r="G186" s="139"/>
+      <c r="H186" s="139"/>
+      <c r="I186" s="139"/>
       <c r="K186" s="58" t="s">
         <v>218</v>
       </c>
@@ -5993,16 +6000,16 @@
     </row>
     <row r="193" spans="1:25" s="16" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="58"/>
-      <c r="B193" s="158" t="s">
+      <c r="B193" s="138" t="s">
         <v>225</v>
       </c>
-      <c r="C193" s="158"/>
-      <c r="D193" s="158"/>
-      <c r="E193" s="158"/>
-      <c r="F193" s="158"/>
-      <c r="G193" s="158"/>
-      <c r="H193" s="158"/>
-      <c r="I193" s="158"/>
+      <c r="C193" s="138"/>
+      <c r="D193" s="138"/>
+      <c r="E193" s="138"/>
+      <c r="F193" s="138"/>
+      <c r="G193" s="138"/>
+      <c r="H193" s="138"/>
+      <c r="I193" s="138"/>
       <c r="K193" s="58" t="s">
         <v>280</v>
       </c>
@@ -6244,16 +6251,16 @@
     </row>
     <row r="206" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="58"/>
-      <c r="B206" s="154" t="s">
+      <c r="B206" s="136" t="s">
         <v>64</v>
       </c>
-      <c r="C206" s="154"/>
-      <c r="D206" s="154"/>
-      <c r="E206" s="154"/>
-      <c r="F206" s="154"/>
-      <c r="G206" s="154"/>
-      <c r="H206" s="154"/>
-      <c r="I206" s="154"/>
+      <c r="C206" s="136"/>
+      <c r="D206" s="136"/>
+      <c r="E206" s="136"/>
+      <c r="F206" s="136"/>
+      <c r="G206" s="136"/>
+      <c r="H206" s="136"/>
+      <c r="I206" s="136"/>
       <c r="K206" t="s">
         <v>65</v>
       </c>
@@ -6312,16 +6319,16 @@
       <c r="P210" s="42"/>
     </row>
     <row r="211" spans="1:20" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="158" t="s">
+      <c r="B211" s="138" t="s">
         <v>222</v>
       </c>
-      <c r="C211" s="158"/>
-      <c r="D211" s="158"/>
-      <c r="E211" s="158"/>
-      <c r="F211" s="158"/>
-      <c r="G211" s="158"/>
-      <c r="H211" s="158"/>
-      <c r="I211" s="158"/>
+      <c r="C211" s="138"/>
+      <c r="D211" s="138"/>
+      <c r="E211" s="138"/>
+      <c r="F211" s="138"/>
+      <c r="G211" s="138"/>
+      <c r="H211" s="138"/>
+      <c r="I211" s="138"/>
       <c r="K211" s="58"/>
       <c r="L211" s="60"/>
     </row>
@@ -6330,14 +6337,14 @@
         <v>142</v>
       </c>
       <c r="C212" s="78"/>
-      <c r="D212" s="155" t="s">
+      <c r="D212" s="149" t="s">
         <v>143</v>
       </c>
-      <c r="E212" s="155"/>
-      <c r="F212" s="155" t="s">
+      <c r="E212" s="149"/>
+      <c r="F212" s="149" t="s">
         <v>144</v>
       </c>
-      <c r="G212" s="155"/>
+      <c r="G212" s="149"/>
       <c r="H212" s="29"/>
       <c r="O212" s="25"/>
       <c r="P212" s="29"/>
@@ -6347,14 +6354,14 @@
         <v>138</v>
       </c>
       <c r="C213" s="53"/>
-      <c r="D213" s="157" t="s">
+      <c r="D213" s="137" t="s">
         <v>139</v>
       </c>
-      <c r="E213" s="157"/>
-      <c r="F213" s="156">
+      <c r="E213" s="137"/>
+      <c r="F213" s="150">
         <v>10000000</v>
       </c>
-      <c r="G213" s="156"/>
+      <c r="G213" s="150"/>
       <c r="H213" s="48"/>
       <c r="I213" s="25"/>
       <c r="O213" s="47"/>
@@ -6365,14 +6372,14 @@
         <v>140</v>
       </c>
       <c r="C214" s="53"/>
-      <c r="D214" s="157" t="s">
+      <c r="D214" s="137" t="s">
         <v>141</v>
       </c>
-      <c r="E214" s="157"/>
-      <c r="F214" s="156">
+      <c r="E214" s="137"/>
+      <c r="F214" s="150">
         <v>20000000</v>
       </c>
-      <c r="G214" s="156"/>
+      <c r="G214" s="150"/>
       <c r="H214" s="48"/>
       <c r="O214" s="47"/>
       <c r="P214" s="65"/>
@@ -6441,16 +6448,16 @@
     </row>
     <row r="218" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
-      <c r="B218" s="137" t="s">
+      <c r="B218" s="139" t="s">
         <v>204</v>
       </c>
-      <c r="C218" s="137"/>
-      <c r="D218" s="137"/>
-      <c r="E218" s="137"/>
-      <c r="F218" s="137"/>
-      <c r="G218" s="137"/>
-      <c r="H218" s="137"/>
-      <c r="I218" s="137"/>
+      <c r="C218" s="139"/>
+      <c r="D218" s="139"/>
+      <c r="E218" s="139"/>
+      <c r="F218" s="139"/>
+      <c r="G218" s="139"/>
+      <c r="H218" s="139"/>
+      <c r="I218" s="139"/>
       <c r="P218" s="65"/>
       <c r="Q218" s="35"/>
       <c r="R218" s="35"/>
@@ -6459,39 +6466,39 @@
     </row>
     <row r="219" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
-      <c r="B219" s="137"/>
-      <c r="C219" s="137"/>
-      <c r="D219" s="137"/>
-      <c r="E219" s="137"/>
-      <c r="F219" s="137"/>
-      <c r="G219" s="137"/>
-      <c r="H219" s="137"/>
-      <c r="I219" s="137"/>
+      <c r="B219" s="139"/>
+      <c r="C219" s="139"/>
+      <c r="D219" s="139"/>
+      <c r="E219" s="139"/>
+      <c r="F219" s="139"/>
+      <c r="G219" s="139"/>
+      <c r="H219" s="139"/>
+      <c r="I219" s="139"/>
       <c r="P219" s="65"/>
     </row>
     <row r="220" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
-      <c r="B220" s="137"/>
-      <c r="C220" s="137"/>
-      <c r="D220" s="137"/>
-      <c r="E220" s="137"/>
-      <c r="F220" s="137"/>
-      <c r="G220" s="137"/>
-      <c r="H220" s="137"/>
-      <c r="I220" s="137"/>
+      <c r="B220" s="139"/>
+      <c r="C220" s="139"/>
+      <c r="D220" s="139"/>
+      <c r="E220" s="139"/>
+      <c r="F220" s="139"/>
+      <c r="G220" s="139"/>
+      <c r="H220" s="139"/>
+      <c r="I220" s="139"/>
       <c r="P220" s="65"/>
       <c r="S220" s="34"/>
     </row>
     <row r="221" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
-      <c r="B221" s="137"/>
-      <c r="C221" s="137"/>
-      <c r="D221" s="137"/>
-      <c r="E221" s="137"/>
-      <c r="F221" s="137"/>
-      <c r="G221" s="137"/>
-      <c r="H221" s="137"/>
-      <c r="I221" s="137"/>
+      <c r="B221" s="139"/>
+      <c r="C221" s="139"/>
+      <c r="D221" s="139"/>
+      <c r="E221" s="139"/>
+      <c r="F221" s="139"/>
+      <c r="G221" s="139"/>
+      <c r="H221" s="139"/>
+      <c r="I221" s="139"/>
       <c r="P221" s="65"/>
       <c r="Q221" s="16"/>
       <c r="R221" s="16"/>
@@ -6537,39 +6544,39 @@
       <c r="P223" s="42"/>
     </row>
     <row r="224" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="137" t="s">
+      <c r="B224" s="139" t="s">
         <v>73</v>
       </c>
-      <c r="C224" s="137"/>
-      <c r="D224" s="137"/>
-      <c r="E224" s="137"/>
-      <c r="F224" s="137"/>
-      <c r="G224" s="137"/>
-      <c r="H224" s="137"/>
-      <c r="I224" s="137"/>
+      <c r="C224" s="139"/>
+      <c r="D224" s="139"/>
+      <c r="E224" s="139"/>
+      <c r="F224" s="139"/>
+      <c r="G224" s="139"/>
+      <c r="H224" s="139"/>
+      <c r="I224" s="139"/>
     </row>
     <row r="225" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="137"/>
-      <c r="C225" s="137"/>
-      <c r="D225" s="137"/>
-      <c r="E225" s="137"/>
-      <c r="F225" s="137"/>
-      <c r="G225" s="137"/>
-      <c r="H225" s="137"/>
-      <c r="I225" s="137"/>
+      <c r="B225" s="139"/>
+      <c r="C225" s="139"/>
+      <c r="D225" s="139"/>
+      <c r="E225" s="139"/>
+      <c r="F225" s="139"/>
+      <c r="G225" s="139"/>
+      <c r="H225" s="139"/>
+      <c r="I225" s="139"/>
     </row>
     <row r="226" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B226" s="140" t="s">
+      <c r="B226" s="152" t="s">
+        <v>202</v>
+      </c>
+      <c r="C226" s="152"/>
+      <c r="D226" s="151"/>
+      <c r="E226" s="151"/>
+      <c r="F226" s="151"/>
+      <c r="G226" s="158" t="s">
         <v>287</v>
       </c>
-      <c r="C226" s="140"/>
-      <c r="D226" s="135"/>
-      <c r="E226" s="135"/>
-      <c r="F226" s="135"/>
-      <c r="G226" s="144" t="s">
-        <v>288</v>
-      </c>
-      <c r="H226" s="145"/>
+      <c r="H226" s="159"/>
       <c r="K226" s="58"/>
       <c r="L226" s="109" t="s">
         <v>202</v>
@@ -6584,13 +6591,13 @@
       </c>
     </row>
     <row r="227" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B227" s="140"/>
-      <c r="C227" s="140"/>
-      <c r="D227" s="136"/>
-      <c r="E227" s="136"/>
-      <c r="F227" s="136"/>
-      <c r="G227" s="146"/>
-      <c r="H227" s="147"/>
+      <c r="B227" s="152"/>
+      <c r="C227" s="152"/>
+      <c r="D227" s="152"/>
+      <c r="E227" s="152"/>
+      <c r="F227" s="152"/>
+      <c r="G227" s="160"/>
+      <c r="H227" s="161"/>
       <c r="I227" s="25"/>
       <c r="L227" s="111" t="s">
         <v>269</v>
@@ -6606,13 +6613,13 @@
       </c>
     </row>
     <row r="228" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B228" s="139"/>
-      <c r="C228" s="139"/>
+      <c r="B228" s="154"/>
+      <c r="C228" s="154"/>
       <c r="D228" s="132"/>
       <c r="E228" s="132"/>
       <c r="F228" s="132"/>
-      <c r="G228" s="148"/>
-      <c r="H228" s="149"/>
+      <c r="G228" s="162"/>
+      <c r="H228" s="163"/>
       <c r="I228" s="25"/>
       <c r="L228" s="108" t="s">
         <v>279</v>
@@ -6628,15 +6635,15 @@
       </c>
     </row>
     <row r="229" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B229" s="139" t="s">
-        <v>289</v>
-      </c>
-      <c r="C229" s="139"/>
+      <c r="B229" s="154" t="s">
+        <v>288</v>
+      </c>
+      <c r="C229" s="154"/>
       <c r="D229" s="133"/>
       <c r="E229" s="132"/>
       <c r="F229" s="132"/>
-      <c r="G229" s="150"/>
-      <c r="H229" s="151"/>
+      <c r="G229" s="164"/>
+      <c r="H229" s="165"/>
       <c r="I229" s="25"/>
       <c r="L229" s="106" t="s">
         <v>277</v>
@@ -6652,15 +6659,15 @@
       </c>
     </row>
     <row r="230" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="141" t="s">
-        <v>290</v>
-      </c>
-      <c r="C230" s="142"/>
-      <c r="D230" s="142"/>
-      <c r="E230" s="142"/>
-      <c r="F230" s="143"/>
-      <c r="G230" s="152"/>
-      <c r="H230" s="153"/>
+      <c r="B230" s="155" t="s">
+        <v>289</v>
+      </c>
+      <c r="C230" s="156"/>
+      <c r="D230" s="156"/>
+      <c r="E230" s="156"/>
+      <c r="F230" s="157"/>
+      <c r="G230" s="166"/>
+      <c r="H230" s="167"/>
       <c r="I230" s="25"/>
       <c r="L230" s="106"/>
       <c r="M230" s="120"/>
@@ -6669,15 +6676,15 @@
       <c r="P230" s="107"/>
     </row>
     <row r="231" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="141" t="s">
-        <v>291</v>
-      </c>
-      <c r="C231" s="142"/>
-      <c r="D231" s="142"/>
-      <c r="E231" s="142"/>
-      <c r="F231" s="143"/>
-      <c r="G231" s="152"/>
-      <c r="H231" s="153"/>
+      <c r="B231" s="155" t="s">
+        <v>290</v>
+      </c>
+      <c r="C231" s="156"/>
+      <c r="D231" s="156"/>
+      <c r="E231" s="156"/>
+      <c r="F231" s="157"/>
+      <c r="G231" s="166"/>
+      <c r="H231" s="167"/>
       <c r="I231" s="25"/>
       <c r="L231" s="106"/>
       <c r="M231" s="120"/>
@@ -6744,16 +6751,16 @@
       <c r="P234" s="129"/>
     </row>
     <row r="235" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B235" s="137" t="s">
+      <c r="B235" s="139" t="s">
         <v>78</v>
       </c>
-      <c r="C235" s="137"/>
-      <c r="D235" s="137"/>
-      <c r="E235" s="137"/>
-      <c r="F235" s="137"/>
-      <c r="G235" s="137"/>
-      <c r="H235" s="137"/>
-      <c r="I235" s="137"/>
+      <c r="C235" s="139"/>
+      <c r="D235" s="139"/>
+      <c r="E235" s="139"/>
+      <c r="F235" s="139"/>
+      <c r="G235" s="139"/>
+      <c r="H235" s="139"/>
+      <c r="I235" s="139"/>
       <c r="L235" s="58"/>
       <c r="M235" s="58"/>
       <c r="N235" s="58"/>
@@ -6762,14 +6769,14 @@
     </row>
     <row r="236" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="46"/>
-      <c r="B236" s="137"/>
-      <c r="C236" s="137"/>
-      <c r="D236" s="137"/>
-      <c r="E236" s="137"/>
-      <c r="F236" s="137"/>
-      <c r="G236" s="137"/>
-      <c r="H236" s="137"/>
-      <c r="I236" s="137"/>
+      <c r="B236" s="139"/>
+      <c r="C236" s="139"/>
+      <c r="D236" s="139"/>
+      <c r="E236" s="139"/>
+      <c r="F236" s="139"/>
+      <c r="G236" s="139"/>
+      <c r="H236" s="139"/>
+      <c r="I236" s="139"/>
       <c r="L236" s="58"/>
       <c r="M236" s="58"/>
       <c r="N236" s="58"/>
@@ -6987,7 +6994,9 @@
       <c r="P249" s="129"/>
     </row>
     <row r="250" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B250" s="35"/>
+      <c r="B250" s="35" t="s">
+        <v>291</v>
+      </c>
       <c r="L250" s="58"/>
       <c r="M250" s="58"/>
       <c r="N250" s="58"/>
@@ -7108,11 +7117,11 @@
       <c r="B262" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="F262" s="138">
+      <c r="F262" s="153">
         <f ca="1">TODAY()</f>
-        <v>45315</v>
-      </c>
-      <c r="G262" s="138"/>
+        <v>45357</v>
+      </c>
+      <c r="G262" s="153"/>
       <c r="P262" s="65"/>
     </row>
     <row r="263" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -7128,374 +7137,374 @@
       <c r="A264" s="28">
         <v>1</v>
       </c>
-      <c r="B264" s="161" t="s">
+      <c r="B264" s="146" t="s">
         <v>162</v>
       </c>
-      <c r="C264" s="161"/>
-      <c r="D264" s="161"/>
-      <c r="E264" s="161"/>
-      <c r="F264" s="161"/>
-      <c r="G264" s="161"/>
-      <c r="H264" s="161"/>
-      <c r="I264" s="161"/>
+      <c r="C264" s="146"/>
+      <c r="D264" s="146"/>
+      <c r="E264" s="146"/>
+      <c r="F264" s="146"/>
+      <c r="G264" s="146"/>
+      <c r="H264" s="146"/>
+      <c r="I264" s="146"/>
     </row>
     <row r="265" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="28">
         <v>2</v>
       </c>
-      <c r="B265" s="161" t="s">
+      <c r="B265" s="146" t="s">
         <v>163</v>
       </c>
-      <c r="C265" s="161"/>
-      <c r="D265" s="161"/>
-      <c r="E265" s="161"/>
-      <c r="F265" s="161"/>
-      <c r="G265" s="161"/>
-      <c r="H265" s="161"/>
-      <c r="I265" s="161"/>
+      <c r="C265" s="146"/>
+      <c r="D265" s="146"/>
+      <c r="E265" s="146"/>
+      <c r="F265" s="146"/>
+      <c r="G265" s="146"/>
+      <c r="H265" s="146"/>
+      <c r="I265" s="146"/>
     </row>
     <row r="266" spans="1:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="28">
         <v>3</v>
       </c>
-      <c r="B266" s="161" t="s">
+      <c r="B266" s="146" t="s">
         <v>164</v>
       </c>
-      <c r="C266" s="161"/>
-      <c r="D266" s="161"/>
-      <c r="E266" s="161"/>
-      <c r="F266" s="161"/>
-      <c r="G266" s="161"/>
-      <c r="H266" s="161"/>
-      <c r="I266" s="161"/>
+      <c r="C266" s="146"/>
+      <c r="D266" s="146"/>
+      <c r="E266" s="146"/>
+      <c r="F266" s="146"/>
+      <c r="G266" s="146"/>
+      <c r="H266" s="146"/>
+      <c r="I266" s="146"/>
     </row>
     <row r="267" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="28">
         <v>4</v>
       </c>
-      <c r="B267" s="161" t="s">
+      <c r="B267" s="146" t="s">
         <v>165</v>
       </c>
-      <c r="C267" s="161"/>
-      <c r="D267" s="161"/>
-      <c r="E267" s="161"/>
-      <c r="F267" s="161"/>
-      <c r="G267" s="161"/>
-      <c r="H267" s="161"/>
-      <c r="I267" s="161"/>
+      <c r="C267" s="146"/>
+      <c r="D267" s="146"/>
+      <c r="E267" s="146"/>
+      <c r="F267" s="146"/>
+      <c r="G267" s="146"/>
+      <c r="H267" s="146"/>
+      <c r="I267" s="146"/>
     </row>
     <row r="268" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="28">
         <v>5</v>
       </c>
-      <c r="B268" s="161" t="s">
+      <c r="B268" s="146" t="s">
         <v>166</v>
       </c>
-      <c r="C268" s="161"/>
-      <c r="D268" s="161"/>
-      <c r="E268" s="161"/>
-      <c r="F268" s="161"/>
-      <c r="G268" s="161"/>
-      <c r="H268" s="161"/>
-      <c r="I268" s="161"/>
+      <c r="C268" s="146"/>
+      <c r="D268" s="146"/>
+      <c r="E268" s="146"/>
+      <c r="F268" s="146"/>
+      <c r="G268" s="146"/>
+      <c r="H268" s="146"/>
+      <c r="I268" s="146"/>
     </row>
     <row r="269" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="28"/>
-      <c r="B269" s="161" t="s">
+      <c r="B269" s="146" t="s">
         <v>167</v>
       </c>
-      <c r="C269" s="161"/>
-      <c r="D269" s="161"/>
-      <c r="E269" s="161"/>
-      <c r="F269" s="161"/>
-      <c r="G269" s="161"/>
-      <c r="H269" s="161"/>
-      <c r="I269" s="161"/>
+      <c r="C269" s="146"/>
+      <c r="D269" s="146"/>
+      <c r="E269" s="146"/>
+      <c r="F269" s="146"/>
+      <c r="G269" s="146"/>
+      <c r="H269" s="146"/>
+      <c r="I269" s="146"/>
     </row>
     <row r="270" spans="1:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="28"/>
-      <c r="B270" s="161" t="s">
+      <c r="B270" s="146" t="s">
         <v>168</v>
       </c>
-      <c r="C270" s="161"/>
-      <c r="D270" s="161"/>
-      <c r="E270" s="161"/>
-      <c r="F270" s="161"/>
-      <c r="G270" s="161"/>
-      <c r="H270" s="161"/>
-      <c r="I270" s="161"/>
+      <c r="C270" s="146"/>
+      <c r="D270" s="146"/>
+      <c r="E270" s="146"/>
+      <c r="F270" s="146"/>
+      <c r="G270" s="146"/>
+      <c r="H270" s="146"/>
+      <c r="I270" s="146"/>
     </row>
     <row r="271" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="28"/>
-      <c r="B271" s="161" t="s">
+      <c r="B271" s="146" t="s">
         <v>169</v>
       </c>
-      <c r="C271" s="161"/>
-      <c r="D271" s="161"/>
-      <c r="E271" s="161"/>
-      <c r="F271" s="161"/>
-      <c r="G271" s="161"/>
-      <c r="H271" s="161"/>
-      <c r="I271" s="161"/>
+      <c r="C271" s="146"/>
+      <c r="D271" s="146"/>
+      <c r="E271" s="146"/>
+      <c r="F271" s="146"/>
+      <c r="G271" s="146"/>
+      <c r="H271" s="146"/>
+      <c r="I271" s="146"/>
     </row>
     <row r="272" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="28">
         <v>6</v>
       </c>
-      <c r="B272" s="161" t="s">
+      <c r="B272" s="146" t="s">
         <v>170</v>
       </c>
-      <c r="C272" s="161"/>
-      <c r="D272" s="161"/>
-      <c r="E272" s="161"/>
-      <c r="F272" s="161"/>
-      <c r="G272" s="161"/>
-      <c r="H272" s="161"/>
-      <c r="I272" s="161"/>
+      <c r="C272" s="146"/>
+      <c r="D272" s="146"/>
+      <c r="E272" s="146"/>
+      <c r="F272" s="146"/>
+      <c r="G272" s="146"/>
+      <c r="H272" s="146"/>
+      <c r="I272" s="146"/>
     </row>
     <row r="273" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="28"/>
-      <c r="B273" s="161" t="s">
+      <c r="B273" s="146" t="s">
         <v>171</v>
       </c>
-      <c r="C273" s="161"/>
-      <c r="D273" s="161"/>
-      <c r="E273" s="161"/>
-      <c r="F273" s="161"/>
-      <c r="G273" s="161"/>
-      <c r="H273" s="161"/>
-      <c r="I273" s="161"/>
+      <c r="C273" s="146"/>
+      <c r="D273" s="146"/>
+      <c r="E273" s="146"/>
+      <c r="F273" s="146"/>
+      <c r="G273" s="146"/>
+      <c r="H273" s="146"/>
+      <c r="I273" s="146"/>
     </row>
     <row r="274" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="28"/>
-      <c r="B274" s="161" t="s">
+      <c r="B274" s="146" t="s">
         <v>172</v>
       </c>
-      <c r="C274" s="161"/>
-      <c r="D274" s="161"/>
-      <c r="E274" s="161"/>
-      <c r="F274" s="161"/>
-      <c r="G274" s="161"/>
-      <c r="H274" s="161"/>
-      <c r="I274" s="161"/>
+      <c r="C274" s="146"/>
+      <c r="D274" s="146"/>
+      <c r="E274" s="146"/>
+      <c r="F274" s="146"/>
+      <c r="G274" s="146"/>
+      <c r="H274" s="146"/>
+      <c r="I274" s="146"/>
     </row>
     <row r="275" spans="1:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="28">
         <v>7</v>
       </c>
-      <c r="B275" s="161" t="s">
+      <c r="B275" s="146" t="s">
         <v>173</v>
       </c>
-      <c r="C275" s="161"/>
-      <c r="D275" s="161"/>
-      <c r="E275" s="161"/>
-      <c r="F275" s="161"/>
-      <c r="G275" s="161"/>
-      <c r="H275" s="161"/>
-      <c r="I275" s="161"/>
+      <c r="C275" s="146"/>
+      <c r="D275" s="146"/>
+      <c r="E275" s="146"/>
+      <c r="F275" s="146"/>
+      <c r="G275" s="146"/>
+      <c r="H275" s="146"/>
+      <c r="I275" s="146"/>
     </row>
     <row r="276" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="28">
         <v>8</v>
       </c>
-      <c r="B276" s="161" t="s">
+      <c r="B276" s="146" t="s">
         <v>174</v>
       </c>
-      <c r="C276" s="161"/>
-      <c r="D276" s="161"/>
-      <c r="E276" s="161"/>
-      <c r="F276" s="161"/>
-      <c r="G276" s="161"/>
-      <c r="H276" s="161"/>
-      <c r="I276" s="161"/>
+      <c r="C276" s="146"/>
+      <c r="D276" s="146"/>
+      <c r="E276" s="146"/>
+      <c r="F276" s="146"/>
+      <c r="G276" s="146"/>
+      <c r="H276" s="146"/>
+      <c r="I276" s="146"/>
     </row>
     <row r="277" spans="1:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="28"/>
-      <c r="B277" s="161" t="s">
+      <c r="B277" s="146" t="s">
         <v>175</v>
       </c>
-      <c r="C277" s="161"/>
-      <c r="D277" s="161"/>
-      <c r="E277" s="161"/>
-      <c r="F277" s="161"/>
-      <c r="G277" s="161"/>
-      <c r="H277" s="161"/>
-      <c r="I277" s="161"/>
+      <c r="C277" s="146"/>
+      <c r="D277" s="146"/>
+      <c r="E277" s="146"/>
+      <c r="F277" s="146"/>
+      <c r="G277" s="146"/>
+      <c r="H277" s="146"/>
+      <c r="I277" s="146"/>
     </row>
     <row r="278" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="28"/>
-      <c r="B278" s="161" t="s">
+      <c r="B278" s="146" t="s">
         <v>160</v>
       </c>
-      <c r="C278" s="161"/>
-      <c r="D278" s="161"/>
-      <c r="E278" s="161"/>
-      <c r="F278" s="161"/>
-      <c r="G278" s="161"/>
-      <c r="H278" s="161"/>
-      <c r="I278" s="161"/>
+      <c r="C278" s="146"/>
+      <c r="D278" s="146"/>
+      <c r="E278" s="146"/>
+      <c r="F278" s="146"/>
+      <c r="G278" s="146"/>
+      <c r="H278" s="146"/>
+      <c r="I278" s="146"/>
     </row>
     <row r="279" spans="1:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="28"/>
-      <c r="B279" s="161" t="s">
+      <c r="B279" s="146" t="s">
         <v>176</v>
       </c>
-      <c r="C279" s="161"/>
-      <c r="D279" s="161"/>
-      <c r="E279" s="161"/>
-      <c r="F279" s="161"/>
-      <c r="G279" s="161"/>
-      <c r="H279" s="161"/>
-      <c r="I279" s="161"/>
+      <c r="C279" s="146"/>
+      <c r="D279" s="146"/>
+      <c r="E279" s="146"/>
+      <c r="F279" s="146"/>
+      <c r="G279" s="146"/>
+      <c r="H279" s="146"/>
+      <c r="I279" s="146"/>
     </row>
     <row r="280" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="28"/>
-      <c r="B280" s="161" t="s">
+      <c r="B280" s="146" t="s">
         <v>177</v>
       </c>
-      <c r="C280" s="161"/>
-      <c r="D280" s="161"/>
-      <c r="E280" s="161"/>
-      <c r="F280" s="161"/>
-      <c r="G280" s="161"/>
-      <c r="H280" s="161"/>
-      <c r="I280" s="161"/>
+      <c r="C280" s="146"/>
+      <c r="D280" s="146"/>
+      <c r="E280" s="146"/>
+      <c r="F280" s="146"/>
+      <c r="G280" s="146"/>
+      <c r="H280" s="146"/>
+      <c r="I280" s="146"/>
     </row>
     <row r="281" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="28"/>
-      <c r="B281" s="161" t="s">
+      <c r="B281" s="146" t="s">
         <v>178</v>
       </c>
-      <c r="C281" s="161"/>
-      <c r="D281" s="161"/>
-      <c r="E281" s="161"/>
-      <c r="F281" s="161"/>
-      <c r="G281" s="161"/>
-      <c r="H281" s="161"/>
-      <c r="I281" s="161"/>
+      <c r="C281" s="146"/>
+      <c r="D281" s="146"/>
+      <c r="E281" s="146"/>
+      <c r="F281" s="146"/>
+      <c r="G281" s="146"/>
+      <c r="H281" s="146"/>
+      <c r="I281" s="146"/>
     </row>
     <row r="282" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="28"/>
-      <c r="B282" s="161" t="s">
+      <c r="B282" s="146" t="s">
         <v>179</v>
       </c>
-      <c r="C282" s="161"/>
-      <c r="D282" s="161"/>
-      <c r="E282" s="161"/>
-      <c r="F282" s="161"/>
-      <c r="G282" s="161"/>
-      <c r="H282" s="161"/>
-      <c r="I282" s="161"/>
+      <c r="C282" s="146"/>
+      <c r="D282" s="146"/>
+      <c r="E282" s="146"/>
+      <c r="F282" s="146"/>
+      <c r="G282" s="146"/>
+      <c r="H282" s="146"/>
+      <c r="I282" s="146"/>
     </row>
     <row r="283" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="28">
         <v>9</v>
       </c>
-      <c r="B283" s="161" t="s">
+      <c r="B283" s="146" t="s">
         <v>180</v>
       </c>
-      <c r="C283" s="161"/>
-      <c r="D283" s="161"/>
-      <c r="E283" s="161"/>
-      <c r="F283" s="161"/>
-      <c r="G283" s="161"/>
-      <c r="H283" s="161"/>
-      <c r="I283" s="161"/>
+      <c r="C283" s="146"/>
+      <c r="D283" s="146"/>
+      <c r="E283" s="146"/>
+      <c r="F283" s="146"/>
+      <c r="G283" s="146"/>
+      <c r="H283" s="146"/>
+      <c r="I283" s="146"/>
     </row>
     <row r="284" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="28">
         <v>10</v>
       </c>
-      <c r="B284" s="161" t="s">
+      <c r="B284" s="146" t="s">
         <v>181</v>
       </c>
-      <c r="C284" s="161"/>
-      <c r="D284" s="161"/>
-      <c r="E284" s="161"/>
-      <c r="F284" s="161"/>
-      <c r="G284" s="161"/>
-      <c r="H284" s="161"/>
-      <c r="I284" s="161"/>
+      <c r="C284" s="146"/>
+      <c r="D284" s="146"/>
+      <c r="E284" s="146"/>
+      <c r="F284" s="146"/>
+      <c r="G284" s="146"/>
+      <c r="H284" s="146"/>
+      <c r="I284" s="146"/>
     </row>
     <row r="285" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="28"/>
-      <c r="B285" s="161" t="s">
+      <c r="B285" s="146" t="s">
         <v>182</v>
       </c>
-      <c r="C285" s="161"/>
-      <c r="D285" s="161"/>
-      <c r="E285" s="161"/>
-      <c r="F285" s="161"/>
-      <c r="G285" s="161"/>
-      <c r="H285" s="161"/>
-      <c r="I285" s="161"/>
+      <c r="C285" s="146"/>
+      <c r="D285" s="146"/>
+      <c r="E285" s="146"/>
+      <c r="F285" s="146"/>
+      <c r="G285" s="146"/>
+      <c r="H285" s="146"/>
+      <c r="I285" s="146"/>
     </row>
     <row r="286" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="28"/>
-      <c r="B286" s="161" t="s">
+      <c r="B286" s="146" t="s">
         <v>183</v>
       </c>
-      <c r="C286" s="161"/>
-      <c r="D286" s="161"/>
-      <c r="E286" s="161"/>
-      <c r="F286" s="161"/>
-      <c r="G286" s="161"/>
-      <c r="H286" s="161"/>
-      <c r="I286" s="161"/>
+      <c r="C286" s="146"/>
+      <c r="D286" s="146"/>
+      <c r="E286" s="146"/>
+      <c r="F286" s="146"/>
+      <c r="G286" s="146"/>
+      <c r="H286" s="146"/>
+      <c r="I286" s="146"/>
     </row>
     <row r="287" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="28"/>
-      <c r="B287" s="161" t="s">
+      <c r="B287" s="146" t="s">
         <v>184</v>
       </c>
-      <c r="C287" s="161"/>
-      <c r="D287" s="161"/>
-      <c r="E287" s="161"/>
-      <c r="F287" s="161"/>
-      <c r="G287" s="161"/>
-      <c r="H287" s="161"/>
-      <c r="I287" s="161"/>
+      <c r="C287" s="146"/>
+      <c r="D287" s="146"/>
+      <c r="E287" s="146"/>
+      <c r="F287" s="146"/>
+      <c r="G287" s="146"/>
+      <c r="H287" s="146"/>
+      <c r="I287" s="146"/>
     </row>
     <row r="288" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="28"/>
-      <c r="B288" s="161" t="s">
+      <c r="B288" s="146" t="s">
         <v>159</v>
       </c>
-      <c r="C288" s="161"/>
-      <c r="D288" s="161"/>
-      <c r="E288" s="161"/>
-      <c r="F288" s="161"/>
-      <c r="G288" s="161"/>
-      <c r="H288" s="161"/>
-      <c r="I288" s="161"/>
+      <c r="C288" s="146"/>
+      <c r="D288" s="146"/>
+      <c r="E288" s="146"/>
+      <c r="F288" s="146"/>
+      <c r="G288" s="146"/>
+      <c r="H288" s="146"/>
+      <c r="I288" s="146"/>
     </row>
     <row r="289" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="28">
         <v>11</v>
       </c>
-      <c r="B289" s="161" t="s">
+      <c r="B289" s="146" t="s">
         <v>185</v>
       </c>
-      <c r="C289" s="161"/>
-      <c r="D289" s="161"/>
-      <c r="E289" s="161"/>
-      <c r="F289" s="161"/>
-      <c r="G289" s="161"/>
-      <c r="H289" s="161"/>
-      <c r="I289" s="161"/>
+      <c r="C289" s="146"/>
+      <c r="D289" s="146"/>
+      <c r="E289" s="146"/>
+      <c r="F289" s="146"/>
+      <c r="G289" s="146"/>
+      <c r="H289" s="146"/>
+      <c r="I289" s="146"/>
     </row>
     <row r="290" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="28"/>
-      <c r="B290" s="161" t="s">
+      <c r="B290" s="146" t="s">
         <v>186</v>
       </c>
-      <c r="C290" s="161"/>
-      <c r="D290" s="161"/>
-      <c r="E290" s="161"/>
-      <c r="F290" s="161"/>
-      <c r="G290" s="161"/>
-      <c r="H290" s="161"/>
-      <c r="I290" s="161"/>
+      <c r="C290" s="146"/>
+      <c r="D290" s="146"/>
+      <c r="E290" s="146"/>
+      <c r="F290" s="146"/>
+      <c r="G290" s="146"/>
+      <c r="H290" s="146"/>
+      <c r="I290" s="146"/>
     </row>
     <row r="291" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="28"/>
@@ -7516,236 +7525,236 @@
     </row>
     <row r="292" spans="1:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="28"/>
-      <c r="B292" s="161" t="s">
+      <c r="B292" s="146" t="s">
         <v>187</v>
       </c>
-      <c r="C292" s="161"/>
-      <c r="D292" s="161"/>
-      <c r="E292" s="161"/>
-      <c r="F292" s="161"/>
-      <c r="G292" s="161"/>
-      <c r="H292" s="161"/>
-      <c r="I292" s="161"/>
+      <c r="C292" s="146"/>
+      <c r="D292" s="146"/>
+      <c r="E292" s="146"/>
+      <c r="F292" s="146"/>
+      <c r="G292" s="146"/>
+      <c r="H292" s="146"/>
+      <c r="I292" s="146"/>
     </row>
     <row r="293" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="28">
         <v>12</v>
       </c>
-      <c r="B293" s="161" t="s">
+      <c r="B293" s="146" t="s">
         <v>188</v>
       </c>
-      <c r="C293" s="161"/>
-      <c r="D293" s="161"/>
-      <c r="E293" s="161"/>
-      <c r="F293" s="161"/>
-      <c r="G293" s="161"/>
-      <c r="H293" s="161"/>
-      <c r="I293" s="161"/>
+      <c r="C293" s="146"/>
+      <c r="D293" s="146"/>
+      <c r="E293" s="146"/>
+      <c r="F293" s="146"/>
+      <c r="G293" s="146"/>
+      <c r="H293" s="146"/>
+      <c r="I293" s="146"/>
     </row>
     <row r="294" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="28"/>
-      <c r="B294" s="161" t="s">
+      <c r="B294" s="146" t="s">
         <v>189</v>
       </c>
-      <c r="C294" s="161"/>
-      <c r="D294" s="161"/>
-      <c r="E294" s="161"/>
-      <c r="F294" s="161"/>
-      <c r="G294" s="161"/>
-      <c r="H294" s="161"/>
-      <c r="I294" s="161"/>
+      <c r="C294" s="146"/>
+      <c r="D294" s="146"/>
+      <c r="E294" s="146"/>
+      <c r="F294" s="146"/>
+      <c r="G294" s="146"/>
+      <c r="H294" s="146"/>
+      <c r="I294" s="146"/>
     </row>
     <row r="295" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="28"/>
-      <c r="B295" s="161" t="s">
+      <c r="B295" s="146" t="s">
         <v>190</v>
       </c>
-      <c r="C295" s="161"/>
-      <c r="D295" s="161"/>
-      <c r="E295" s="161"/>
-      <c r="F295" s="161"/>
-      <c r="G295" s="161"/>
-      <c r="H295" s="161"/>
-      <c r="I295" s="161"/>
+      <c r="C295" s="146"/>
+      <c r="D295" s="146"/>
+      <c r="E295" s="146"/>
+      <c r="F295" s="146"/>
+      <c r="G295" s="146"/>
+      <c r="H295" s="146"/>
+      <c r="I295" s="146"/>
     </row>
     <row r="296" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="28"/>
-      <c r="B296" s="161" t="s">
+      <c r="B296" s="146" t="s">
         <v>191</v>
       </c>
-      <c r="C296" s="161"/>
-      <c r="D296" s="161"/>
-      <c r="E296" s="161"/>
-      <c r="F296" s="161"/>
-      <c r="G296" s="161"/>
-      <c r="H296" s="161"/>
-      <c r="I296" s="161"/>
+      <c r="C296" s="146"/>
+      <c r="D296" s="146"/>
+      <c r="E296" s="146"/>
+      <c r="F296" s="146"/>
+      <c r="G296" s="146"/>
+      <c r="H296" s="146"/>
+      <c r="I296" s="146"/>
     </row>
     <row r="297" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="28"/>
-      <c r="B297" s="161" t="s">
+      <c r="B297" s="146" t="s">
         <v>192</v>
       </c>
-      <c r="C297" s="161"/>
-      <c r="D297" s="161"/>
-      <c r="E297" s="161"/>
-      <c r="F297" s="161"/>
-      <c r="G297" s="161"/>
-      <c r="H297" s="161"/>
-      <c r="I297" s="161"/>
+      <c r="C297" s="146"/>
+      <c r="D297" s="146"/>
+      <c r="E297" s="146"/>
+      <c r="F297" s="146"/>
+      <c r="G297" s="146"/>
+      <c r="H297" s="146"/>
+      <c r="I297" s="146"/>
     </row>
     <row r="298" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="28">
         <v>13</v>
       </c>
-      <c r="B298" s="161" t="s">
+      <c r="B298" s="146" t="s">
         <v>192</v>
       </c>
-      <c r="C298" s="161"/>
-      <c r="D298" s="161"/>
-      <c r="E298" s="161"/>
-      <c r="F298" s="161"/>
-      <c r="G298" s="161"/>
-      <c r="H298" s="161"/>
-      <c r="I298" s="161"/>
+      <c r="C298" s="146"/>
+      <c r="D298" s="146"/>
+      <c r="E298" s="146"/>
+      <c r="F298" s="146"/>
+      <c r="G298" s="146"/>
+      <c r="H298" s="146"/>
+      <c r="I298" s="146"/>
     </row>
     <row r="299" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="28"/>
-      <c r="B299" s="161" t="s">
+      <c r="B299" s="146" t="s">
         <v>193</v>
       </c>
-      <c r="C299" s="161"/>
-      <c r="D299" s="161"/>
-      <c r="E299" s="161"/>
-      <c r="F299" s="161"/>
-      <c r="G299" s="161"/>
-      <c r="H299" s="161"/>
-      <c r="I299" s="161"/>
+      <c r="C299" s="146"/>
+      <c r="D299" s="146"/>
+      <c r="E299" s="146"/>
+      <c r="F299" s="146"/>
+      <c r="G299" s="146"/>
+      <c r="H299" s="146"/>
+      <c r="I299" s="146"/>
     </row>
     <row r="300" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="28"/>
-      <c r="B300" s="161" t="s">
+      <c r="B300" s="146" t="s">
         <v>194</v>
       </c>
-      <c r="C300" s="161"/>
-      <c r="D300" s="161"/>
-      <c r="E300" s="161"/>
-      <c r="F300" s="161"/>
-      <c r="G300" s="161"/>
-      <c r="H300" s="161"/>
-      <c r="I300" s="161"/>
+      <c r="C300" s="146"/>
+      <c r="D300" s="146"/>
+      <c r="E300" s="146"/>
+      <c r="F300" s="146"/>
+      <c r="G300" s="146"/>
+      <c r="H300" s="146"/>
+      <c r="I300" s="146"/>
     </row>
     <row r="301" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="28">
         <v>14</v>
       </c>
-      <c r="B301" s="161" t="s">
+      <c r="B301" s="146" t="s">
         <v>195</v>
       </c>
-      <c r="C301" s="161"/>
-      <c r="D301" s="161"/>
-      <c r="E301" s="161"/>
-      <c r="F301" s="161"/>
-      <c r="G301" s="161"/>
-      <c r="H301" s="161"/>
-      <c r="I301" s="161"/>
+      <c r="C301" s="146"/>
+      <c r="D301" s="146"/>
+      <c r="E301" s="146"/>
+      <c r="F301" s="146"/>
+      <c r="G301" s="146"/>
+      <c r="H301" s="146"/>
+      <c r="I301" s="146"/>
     </row>
     <row r="302" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="28"/>
-      <c r="B302" s="161" t="s">
+      <c r="B302" s="146" t="s">
         <v>196</v>
       </c>
-      <c r="C302" s="161"/>
-      <c r="D302" s="161"/>
-      <c r="E302" s="161"/>
-      <c r="F302" s="161"/>
-      <c r="G302" s="161"/>
-      <c r="H302" s="161"/>
-      <c r="I302" s="161"/>
+      <c r="C302" s="146"/>
+      <c r="D302" s="146"/>
+      <c r="E302" s="146"/>
+      <c r="F302" s="146"/>
+      <c r="G302" s="146"/>
+      <c r="H302" s="146"/>
+      <c r="I302" s="146"/>
     </row>
     <row r="303" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="28"/>
-      <c r="B303" s="161" t="s">
+      <c r="B303" s="146" t="s">
         <v>161</v>
       </c>
-      <c r="C303" s="161"/>
-      <c r="D303" s="161"/>
-      <c r="E303" s="161"/>
-      <c r="F303" s="161"/>
-      <c r="G303" s="161"/>
-      <c r="H303" s="161"/>
-      <c r="I303" s="161"/>
+      <c r="C303" s="146"/>
+      <c r="D303" s="146"/>
+      <c r="E303" s="146"/>
+      <c r="F303" s="146"/>
+      <c r="G303" s="146"/>
+      <c r="H303" s="146"/>
+      <c r="I303" s="146"/>
     </row>
     <row r="304" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="28"/>
-      <c r="B304" s="161" t="s">
+      <c r="B304" s="146" t="s">
         <v>197</v>
       </c>
-      <c r="C304" s="161"/>
-      <c r="D304" s="161"/>
-      <c r="E304" s="161"/>
-      <c r="F304" s="161"/>
-      <c r="G304" s="161"/>
-      <c r="H304" s="161"/>
-      <c r="I304" s="161"/>
+      <c r="C304" s="146"/>
+      <c r="D304" s="146"/>
+      <c r="E304" s="146"/>
+      <c r="F304" s="146"/>
+      <c r="G304" s="146"/>
+      <c r="H304" s="146"/>
+      <c r="I304" s="146"/>
     </row>
     <row r="305" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="28"/>
-      <c r="B305" s="161" t="s">
+      <c r="B305" s="146" t="s">
         <v>198</v>
       </c>
-      <c r="C305" s="161"/>
-      <c r="D305" s="161"/>
-      <c r="E305" s="161"/>
-      <c r="F305" s="161"/>
-      <c r="G305" s="161"/>
-      <c r="H305" s="161"/>
-      <c r="I305" s="161"/>
+      <c r="C305" s="146"/>
+      <c r="D305" s="146"/>
+      <c r="E305" s="146"/>
+      <c r="F305" s="146"/>
+      <c r="G305" s="146"/>
+      <c r="H305" s="146"/>
+      <c r="I305" s="146"/>
     </row>
     <row r="306" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="28">
         <v>15</v>
       </c>
-      <c r="B306" s="161" t="s">
+      <c r="B306" s="146" t="s">
         <v>199</v>
       </c>
-      <c r="C306" s="161"/>
-      <c r="D306" s="161"/>
-      <c r="E306" s="161"/>
-      <c r="F306" s="161"/>
-      <c r="G306" s="161"/>
-      <c r="H306" s="161"/>
-      <c r="I306" s="161"/>
+      <c r="C306" s="146"/>
+      <c r="D306" s="146"/>
+      <c r="E306" s="146"/>
+      <c r="F306" s="146"/>
+      <c r="G306" s="146"/>
+      <c r="H306" s="146"/>
+      <c r="I306" s="146"/>
     </row>
     <row r="307" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="28">
         <v>16</v>
       </c>
-      <c r="B307" s="161" t="s">
+      <c r="B307" s="146" t="s">
         <v>200</v>
       </c>
-      <c r="C307" s="161"/>
-      <c r="D307" s="161"/>
-      <c r="E307" s="161"/>
-      <c r="F307" s="161"/>
-      <c r="G307" s="161"/>
-      <c r="H307" s="161"/>
-      <c r="I307" s="161"/>
+      <c r="C307" s="146"/>
+      <c r="D307" s="146"/>
+      <c r="E307" s="146"/>
+      <c r="F307" s="146"/>
+      <c r="G307" s="146"/>
+      <c r="H307" s="146"/>
+      <c r="I307" s="146"/>
     </row>
     <row r="308" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="28">
         <v>17</v>
       </c>
-      <c r="B308" s="161" t="s">
+      <c r="B308" s="146" t="s">
         <v>201</v>
       </c>
-      <c r="C308" s="161"/>
-      <c r="D308" s="161"/>
-      <c r="E308" s="161"/>
-      <c r="F308" s="161"/>
-      <c r="G308" s="161"/>
-      <c r="H308" s="161"/>
-      <c r="I308" s="161"/>
+      <c r="C308" s="146"/>
+      <c r="D308" s="146"/>
+      <c r="E308" s="146"/>
+      <c r="F308" s="146"/>
+      <c r="G308" s="146"/>
+      <c r="H308" s="146"/>
+      <c r="I308" s="146"/>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" s="51"/>
@@ -7764,26 +7773,70 @@
     </row>
   </sheetData>
   <mergeCells count="103">
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D214:E214"/>
-    <mergeCell ref="B211:I211"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B64:I64"/>
-    <mergeCell ref="B179:I182"/>
-    <mergeCell ref="A61:I62"/>
-    <mergeCell ref="A68:I69"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="B193:I193"/>
-    <mergeCell ref="B185:I186"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="A51:I51"/>
+    <mergeCell ref="F226:F227"/>
+    <mergeCell ref="B235:I236"/>
+    <mergeCell ref="F262:G262"/>
+    <mergeCell ref="B228:C228"/>
+    <mergeCell ref="B229:C229"/>
+    <mergeCell ref="B226:C227"/>
+    <mergeCell ref="D226:D227"/>
+    <mergeCell ref="E226:E227"/>
+    <mergeCell ref="B230:F230"/>
+    <mergeCell ref="B231:F231"/>
+    <mergeCell ref="G226:H227"/>
+    <mergeCell ref="G228:H228"/>
+    <mergeCell ref="G229:H229"/>
+    <mergeCell ref="G230:H230"/>
+    <mergeCell ref="G231:H231"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="A56:I59"/>
+    <mergeCell ref="B218:I221"/>
+    <mergeCell ref="B206:I206"/>
+    <mergeCell ref="B224:I225"/>
+    <mergeCell ref="F212:G212"/>
+    <mergeCell ref="F213:G213"/>
+    <mergeCell ref="F214:G214"/>
+    <mergeCell ref="D212:E212"/>
+    <mergeCell ref="D213:E213"/>
+    <mergeCell ref="M146:T146"/>
+    <mergeCell ref="M134:T134"/>
+    <mergeCell ref="M135:T135"/>
+    <mergeCell ref="M139:T139"/>
+    <mergeCell ref="M143:T143"/>
+    <mergeCell ref="M145:T145"/>
+    <mergeCell ref="Q54:X54"/>
+    <mergeCell ref="B91:I93"/>
+    <mergeCell ref="B66:I66"/>
+    <mergeCell ref="B86:I87"/>
+    <mergeCell ref="B63:I63"/>
+    <mergeCell ref="B65:I65"/>
+    <mergeCell ref="A53:I54"/>
+    <mergeCell ref="M56:T59"/>
+    <mergeCell ref="B308:I308"/>
+    <mergeCell ref="B297:I297"/>
+    <mergeCell ref="B298:I298"/>
+    <mergeCell ref="B299:I299"/>
+    <mergeCell ref="B300:I300"/>
+    <mergeCell ref="B301:I301"/>
+    <mergeCell ref="B302:I302"/>
+    <mergeCell ref="B303:I303"/>
+    <mergeCell ref="B304:I304"/>
+    <mergeCell ref="B305:I305"/>
+    <mergeCell ref="B306:I306"/>
+    <mergeCell ref="B307:I307"/>
+    <mergeCell ref="B296:I296"/>
+    <mergeCell ref="B283:I283"/>
+    <mergeCell ref="B284:I284"/>
+    <mergeCell ref="B285:I285"/>
+    <mergeCell ref="B286:I286"/>
+    <mergeCell ref="B287:I287"/>
+    <mergeCell ref="B288:I288"/>
+    <mergeCell ref="B289:I289"/>
+    <mergeCell ref="B290:I290"/>
+    <mergeCell ref="B292:I292"/>
+    <mergeCell ref="B293:I293"/>
+    <mergeCell ref="B294:I294"/>
+    <mergeCell ref="B295:I295"/>
     <mergeCell ref="B264:I264"/>
     <mergeCell ref="B265:I265"/>
     <mergeCell ref="B266:I266"/>
@@ -7803,70 +7856,26 @@
     <mergeCell ref="B279:I279"/>
     <mergeCell ref="B280:I280"/>
     <mergeCell ref="B281:I281"/>
-    <mergeCell ref="B296:I296"/>
-    <mergeCell ref="B283:I283"/>
-    <mergeCell ref="B284:I284"/>
-    <mergeCell ref="B285:I285"/>
-    <mergeCell ref="B286:I286"/>
-    <mergeCell ref="B287:I287"/>
-    <mergeCell ref="B288:I288"/>
-    <mergeCell ref="B289:I289"/>
-    <mergeCell ref="B290:I290"/>
-    <mergeCell ref="B292:I292"/>
-    <mergeCell ref="B293:I293"/>
-    <mergeCell ref="B294:I294"/>
-    <mergeCell ref="B295:I295"/>
-    <mergeCell ref="B308:I308"/>
-    <mergeCell ref="B297:I297"/>
-    <mergeCell ref="B298:I298"/>
-    <mergeCell ref="B299:I299"/>
-    <mergeCell ref="B300:I300"/>
-    <mergeCell ref="B301:I301"/>
-    <mergeCell ref="B302:I302"/>
-    <mergeCell ref="B303:I303"/>
-    <mergeCell ref="B304:I304"/>
-    <mergeCell ref="B305:I305"/>
-    <mergeCell ref="B306:I306"/>
-    <mergeCell ref="B307:I307"/>
-    <mergeCell ref="M146:T146"/>
-    <mergeCell ref="M134:T134"/>
-    <mergeCell ref="M135:T135"/>
-    <mergeCell ref="M139:T139"/>
-    <mergeCell ref="M143:T143"/>
-    <mergeCell ref="M145:T145"/>
-    <mergeCell ref="Q54:X54"/>
-    <mergeCell ref="B91:I93"/>
-    <mergeCell ref="B66:I66"/>
-    <mergeCell ref="B86:I87"/>
-    <mergeCell ref="B63:I63"/>
-    <mergeCell ref="B65:I65"/>
-    <mergeCell ref="A53:I54"/>
-    <mergeCell ref="M56:T59"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="A56:I59"/>
-    <mergeCell ref="B218:I221"/>
-    <mergeCell ref="B206:I206"/>
-    <mergeCell ref="B224:I225"/>
-    <mergeCell ref="F212:G212"/>
-    <mergeCell ref="F213:G213"/>
-    <mergeCell ref="F214:G214"/>
-    <mergeCell ref="D212:E212"/>
-    <mergeCell ref="D213:E213"/>
-    <mergeCell ref="F226:F227"/>
-    <mergeCell ref="B235:I236"/>
-    <mergeCell ref="F262:G262"/>
-    <mergeCell ref="B228:C228"/>
-    <mergeCell ref="B229:C229"/>
-    <mergeCell ref="B226:C227"/>
-    <mergeCell ref="D226:D227"/>
-    <mergeCell ref="E226:E227"/>
-    <mergeCell ref="B230:F230"/>
-    <mergeCell ref="B231:F231"/>
-    <mergeCell ref="G226:H227"/>
-    <mergeCell ref="G228:H228"/>
-    <mergeCell ref="G229:H229"/>
-    <mergeCell ref="G230:H230"/>
-    <mergeCell ref="G231:H231"/>
+    <mergeCell ref="B27:H29"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D214:E214"/>
+    <mergeCell ref="B211:I211"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B179:I182"/>
+    <mergeCell ref="A61:I62"/>
+    <mergeCell ref="A68:I69"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="B193:I193"/>
+    <mergeCell ref="B185:I186"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="A51:I51"/>
   </mergeCells>
   <conditionalFormatting sqref="B62">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
@@ -7946,21 +7955,21 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H3" s="169"/>
-      <c r="I3" s="169"/>
+      <c r="H3" s="209"/>
+      <c r="I3" s="209"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="169"/>
-      <c r="I4" s="169"/>
+      <c r="H4" s="209"/>
+      <c r="I4" s="209"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="169"/>
-      <c r="I5" s="169"/>
+      <c r="H5" s="209"/>
+      <c r="I5" s="209"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -7976,24 +7985,24 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="169"/>
-      <c r="I6" s="169"/>
+      <c r="H6" s="209"/>
+      <c r="I6" s="209"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H7" s="169"/>
-      <c r="I7" s="169"/>
+      <c r="H7" s="209"/>
+      <c r="I7" s="209"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H8" s="169"/>
-      <c r="I8" s="169"/>
+      <c r="H8" s="209"/>
+      <c r="I8" s="209"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H9" s="23">
         <f ca="1">TODAY()</f>
-        <v>45315</v>
+        <v>45357</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8016,46 +8025,46 @@
       <c r="A15" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="174" t="s">
+      <c r="B15" s="211" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="174"/>
-      <c r="D15" s="174"/>
+      <c r="C15" s="211"/>
+      <c r="D15" s="211"/>
       <c r="E15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="174" t="s">
+      <c r="F15" s="211" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="174"/>
-      <c r="H15" s="174"/>
-      <c r="I15" s="174"/>
+      <c r="G15" s="211"/>
+      <c r="H15" s="211"/>
+      <c r="I15" s="211"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="178" t="s">
+      <c r="B16" s="215" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="179"/>
-      <c r="D16" s="179"/>
-      <c r="F16" s="178" t="s">
+      <c r="C16" s="216"/>
+      <c r="D16" s="216"/>
+      <c r="F16" s="215" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="179"/>
-      <c r="H16" s="179"/>
-      <c r="I16" s="179"/>
+      <c r="G16" s="216"/>
+      <c r="H16" s="216"/>
+      <c r="I16" s="216"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="174" t="s">
+      <c r="A18" s="211" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="174"/>
-      <c r="C18" s="174"/>
-      <c r="D18" s="174"/>
-      <c r="E18" s="174"/>
-      <c r="F18" s="174"/>
-      <c r="G18" s="174"/>
-      <c r="H18" s="174"/>
-      <c r="I18" s="174"/>
+      <c r="B18" s="211"/>
+      <c r="C18" s="211"/>
+      <c r="D18" s="211"/>
+      <c r="E18" s="211"/>
+      <c r="F18" s="211"/>
+      <c r="G18" s="211"/>
+      <c r="H18" s="211"/>
+      <c r="I18" s="211"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
@@ -8069,43 +8078,43 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="177" t="s">
+      <c r="A20" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="177"/>
-      <c r="C20" s="177"/>
-      <c r="D20" s="177"/>
-      <c r="E20" s="177"/>
-      <c r="F20" s="177"/>
-      <c r="G20" s="177"/>
-      <c r="H20" s="177"/>
-      <c r="I20" s="177"/>
+      <c r="B20" s="214"/>
+      <c r="C20" s="214"/>
+      <c r="D20" s="214"/>
+      <c r="E20" s="214"/>
+      <c r="F20" s="214"/>
+      <c r="G20" s="214"/>
+      <c r="H20" s="214"/>
+      <c r="I20" s="214"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="176" t="s">
+      <c r="A21" s="213" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="176"/>
-      <c r="C21" s="176"/>
-      <c r="D21" s="176"/>
-      <c r="E21" s="176"/>
-      <c r="F21" s="176"/>
-      <c r="G21" s="176"/>
-      <c r="H21" s="176"/>
-      <c r="I21" s="176"/>
+      <c r="B21" s="213"/>
+      <c r="C21" s="213"/>
+      <c r="D21" s="213"/>
+      <c r="E21" s="213"/>
+      <c r="F21" s="213"/>
+      <c r="G21" s="213"/>
+      <c r="H21" s="213"/>
+      <c r="I21" s="213"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="175" t="s">
+      <c r="A22" s="212" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="175"/>
-      <c r="C22" s="175"/>
-      <c r="D22" s="175"/>
-      <c r="E22" s="175"/>
-      <c r="F22" s="175"/>
-      <c r="G22" s="175"/>
-      <c r="H22" s="175"/>
-      <c r="I22" s="175"/>
+      <c r="B22" s="212"/>
+      <c r="C22" s="212"/>
+      <c r="D22" s="212"/>
+      <c r="E22" s="212"/>
+      <c r="F22" s="212"/>
+      <c r="G22" s="212"/>
+      <c r="H22" s="212"/>
+      <c r="I22" s="212"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
@@ -8124,17 +8133,17 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="173" t="s">
+      <c r="A25" s="210" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="173"/>
-      <c r="C25" s="173"/>
-      <c r="D25" s="173"/>
-      <c r="E25" s="173"/>
-      <c r="F25" s="173"/>
-      <c r="G25" s="173"/>
-      <c r="H25" s="173"/>
-      <c r="I25" s="173"/>
+      <c r="B25" s="210"/>
+      <c r="C25" s="210"/>
+      <c r="D25" s="210"/>
+      <c r="E25" s="210"/>
+      <c r="F25" s="210"/>
+      <c r="G25" s="210"/>
+      <c r="H25" s="210"/>
+      <c r="I25" s="210"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -8145,257 +8154,257 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="170" t="s">
+      <c r="B28" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="170"/>
-      <c r="D28" s="170" t="s">
+      <c r="C28" s="171"/>
+      <c r="D28" s="171" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="170"/>
-      <c r="F28" s="170"/>
-      <c r="G28" s="170"/>
-      <c r="H28" s="170"/>
+      <c r="E28" s="171"/>
+      <c r="F28" s="171"/>
+      <c r="G28" s="171"/>
+      <c r="H28" s="171"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="170"/>
-      <c r="C29" s="170"/>
-      <c r="D29" s="170"/>
-      <c r="E29" s="170"/>
-      <c r="F29" s="170"/>
-      <c r="G29" s="170"/>
-      <c r="H29" s="170"/>
+      <c r="B29" s="171"/>
+      <c r="C29" s="171"/>
+      <c r="D29" s="171"/>
+      <c r="E29" s="171"/>
+      <c r="F29" s="171"/>
+      <c r="G29" s="171"/>
+      <c r="H29" s="171"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="180" t="s">
+      <c r="B30" s="168" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="180"/>
-      <c r="D30" s="171" t="s">
+      <c r="C30" s="168"/>
+      <c r="D30" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="172"/>
-      <c r="F30" s="172"/>
-      <c r="G30" s="172"/>
-      <c r="H30" s="172"/>
+      <c r="E30" s="208"/>
+      <c r="F30" s="208"/>
+      <c r="G30" s="208"/>
+      <c r="H30" s="208"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="180"/>
-      <c r="C31" s="180"/>
-      <c r="D31" s="172"/>
-      <c r="E31" s="172"/>
-      <c r="F31" s="172"/>
-      <c r="G31" s="172"/>
-      <c r="H31" s="172"/>
+      <c r="B31" s="168"/>
+      <c r="C31" s="168"/>
+      <c r="D31" s="208"/>
+      <c r="E31" s="208"/>
+      <c r="F31" s="208"/>
+      <c r="G31" s="208"/>
+      <c r="H31" s="208"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="180"/>
-      <c r="C32" s="180"/>
-      <c r="D32" s="172"/>
-      <c r="E32" s="172"/>
-      <c r="F32" s="172"/>
-      <c r="G32" s="172"/>
-      <c r="H32" s="172"/>
+      <c r="B32" s="168"/>
+      <c r="C32" s="168"/>
+      <c r="D32" s="208"/>
+      <c r="E32" s="208"/>
+      <c r="F32" s="208"/>
+      <c r="G32" s="208"/>
+      <c r="H32" s="208"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="180" t="s">
+      <c r="B33" s="168" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="180"/>
-      <c r="D33" s="171" t="s">
+      <c r="C33" s="168"/>
+      <c r="D33" s="207" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="172"/>
-      <c r="F33" s="172"/>
-      <c r="G33" s="172"/>
-      <c r="H33" s="172"/>
+      <c r="E33" s="208"/>
+      <c r="F33" s="208"/>
+      <c r="G33" s="208"/>
+      <c r="H33" s="208"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="180"/>
-      <c r="C34" s="180"/>
-      <c r="D34" s="172"/>
-      <c r="E34" s="172"/>
-      <c r="F34" s="172"/>
-      <c r="G34" s="172"/>
-      <c r="H34" s="172"/>
+      <c r="B34" s="168"/>
+      <c r="C34" s="168"/>
+      <c r="D34" s="208"/>
+      <c r="E34" s="208"/>
+      <c r="F34" s="208"/>
+      <c r="G34" s="208"/>
+      <c r="H34" s="208"/>
       <c r="K34" s="16"/>
       <c r="L34" s="16"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="180"/>
-      <c r="C35" s="180"/>
-      <c r="D35" s="172"/>
-      <c r="E35" s="172"/>
-      <c r="F35" s="172"/>
-      <c r="G35" s="172"/>
-      <c r="H35" s="172"/>
+      <c r="B35" s="168"/>
+      <c r="C35" s="168"/>
+      <c r="D35" s="208"/>
+      <c r="E35" s="208"/>
+      <c r="F35" s="208"/>
+      <c r="G35" s="208"/>
+      <c r="H35" s="208"/>
       <c r="K35" s="16"/>
       <c r="L35" s="16"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="180" t="s">
+      <c r="B36" s="168" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="180"/>
-      <c r="D36" s="171" t="s">
+      <c r="C36" s="168"/>
+      <c r="D36" s="207" t="s">
         <v>25</v>
       </c>
-      <c r="E36" s="172"/>
-      <c r="F36" s="172"/>
-      <c r="G36" s="172"/>
-      <c r="H36" s="172"/>
+      <c r="E36" s="208"/>
+      <c r="F36" s="208"/>
+      <c r="G36" s="208"/>
+      <c r="H36" s="208"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="180"/>
-      <c r="C37" s="180"/>
-      <c r="D37" s="172"/>
-      <c r="E37" s="172"/>
-      <c r="F37" s="172"/>
-      <c r="G37" s="172"/>
-      <c r="H37" s="172"/>
+      <c r="B37" s="168"/>
+      <c r="C37" s="168"/>
+      <c r="D37" s="208"/>
+      <c r="E37" s="208"/>
+      <c r="F37" s="208"/>
+      <c r="G37" s="208"/>
+      <c r="H37" s="208"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="180"/>
-      <c r="C38" s="180"/>
-      <c r="D38" s="172"/>
-      <c r="E38" s="172"/>
-      <c r="F38" s="172"/>
-      <c r="G38" s="172"/>
-      <c r="H38" s="172"/>
+      <c r="B38" s="168"/>
+      <c r="C38" s="168"/>
+      <c r="D38" s="208"/>
+      <c r="E38" s="208"/>
+      <c r="F38" s="208"/>
+      <c r="G38" s="208"/>
+      <c r="H38" s="208"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="180" t="s">
+      <c r="B39" s="168" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="180"/>
-      <c r="D39" s="171" t="s">
+      <c r="C39" s="168"/>
+      <c r="D39" s="207" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="172"/>
-      <c r="F39" s="172"/>
-      <c r="G39" s="172"/>
-      <c r="H39" s="172"/>
+      <c r="E39" s="208"/>
+      <c r="F39" s="208"/>
+      <c r="G39" s="208"/>
+      <c r="H39" s="208"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="180"/>
-      <c r="C40" s="180"/>
-      <c r="D40" s="172"/>
-      <c r="E40" s="172"/>
-      <c r="F40" s="172"/>
-      <c r="G40" s="172"/>
-      <c r="H40" s="172"/>
+      <c r="B40" s="168"/>
+      <c r="C40" s="168"/>
+      <c r="D40" s="208"/>
+      <c r="E40" s="208"/>
+      <c r="F40" s="208"/>
+      <c r="G40" s="208"/>
+      <c r="H40" s="208"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="182" t="s">
+      <c r="A44" s="170" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="182"/>
-      <c r="C44" s="182"/>
-      <c r="D44" s="182"/>
-      <c r="E44" s="182"/>
-      <c r="F44" s="182"/>
-      <c r="G44" s="182"/>
-      <c r="H44" s="182"/>
-      <c r="I44" s="182"/>
+      <c r="B44" s="170"/>
+      <c r="C44" s="170"/>
+      <c r="D44" s="170"/>
+      <c r="E44" s="170"/>
+      <c r="F44" s="170"/>
+      <c r="G44" s="170"/>
+      <c r="H44" s="170"/>
+      <c r="I44" s="170"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="182"/>
-      <c r="B45" s="182"/>
-      <c r="C45" s="182"/>
-      <c r="D45" s="182"/>
-      <c r="E45" s="182"/>
-      <c r="F45" s="182"/>
-      <c r="G45" s="182"/>
-      <c r="H45" s="182"/>
-      <c r="I45" s="182"/>
+      <c r="A45" s="170"/>
+      <c r="B45" s="170"/>
+      <c r="C45" s="170"/>
+      <c r="D45" s="170"/>
+      <c r="E45" s="170"/>
+      <c r="F45" s="170"/>
+      <c r="G45" s="170"/>
+      <c r="H45" s="170"/>
+      <c r="I45" s="170"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B47" s="183" t="s">
+      <c r="B47" s="172" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="184"/>
-      <c r="D47" s="183" t="s">
+      <c r="C47" s="173"/>
+      <c r="D47" s="172" t="s">
         <v>18</v>
       </c>
-      <c r="E47" s="187"/>
-      <c r="F47" s="187"/>
-      <c r="G47" s="187"/>
-      <c r="H47" s="188"/>
+      <c r="E47" s="176"/>
+      <c r="F47" s="176"/>
+      <c r="G47" s="176"/>
+      <c r="H47" s="177"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B48" s="185"/>
-      <c r="C48" s="186"/>
-      <c r="D48" s="189"/>
-      <c r="E48" s="190"/>
-      <c r="F48" s="190"/>
-      <c r="G48" s="190"/>
-      <c r="H48" s="191"/>
+      <c r="B48" s="174"/>
+      <c r="C48" s="175"/>
+      <c r="D48" s="178"/>
+      <c r="E48" s="179"/>
+      <c r="F48" s="179"/>
+      <c r="G48" s="179"/>
+      <c r="H48" s="180"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="197" t="s">
+      <c r="B49" s="186" t="s">
         <v>94</v>
       </c>
-      <c r="C49" s="198"/>
-      <c r="D49" s="201" t="s">
+      <c r="C49" s="187"/>
+      <c r="D49" s="190" t="s">
         <v>92</v>
       </c>
-      <c r="E49" s="202"/>
-      <c r="F49" s="202"/>
-      <c r="G49" s="202"/>
-      <c r="H49" s="203"/>
+      <c r="E49" s="191"/>
+      <c r="F49" s="191"/>
+      <c r="G49" s="191"/>
+      <c r="H49" s="192"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="199"/>
-      <c r="C50" s="200"/>
-      <c r="D50" s="204"/>
-      <c r="E50" s="205"/>
-      <c r="F50" s="205"/>
-      <c r="G50" s="205"/>
-      <c r="H50" s="206"/>
+      <c r="B50" s="188"/>
+      <c r="C50" s="189"/>
+      <c r="D50" s="193"/>
+      <c r="E50" s="194"/>
+      <c r="F50" s="194"/>
+      <c r="G50" s="194"/>
+      <c r="H50" s="195"/>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="197" t="s">
+      <c r="B51" s="186" t="s">
         <v>95</v>
       </c>
-      <c r="C51" s="198"/>
-      <c r="D51" s="207" t="s">
+      <c r="C51" s="187"/>
+      <c r="D51" s="196" t="s">
         <v>93</v>
       </c>
-      <c r="E51" s="208"/>
-      <c r="F51" s="208"/>
-      <c r="G51" s="208"/>
-      <c r="H51" s="209"/>
+      <c r="E51" s="197"/>
+      <c r="F51" s="197"/>
+      <c r="G51" s="197"/>
+      <c r="H51" s="198"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="216"/>
-      <c r="C52" s="217"/>
-      <c r="D52" s="210"/>
-      <c r="E52" s="211"/>
-      <c r="F52" s="211"/>
-      <c r="G52" s="211"/>
-      <c r="H52" s="212"/>
+      <c r="B52" s="205"/>
+      <c r="C52" s="206"/>
+      <c r="D52" s="199"/>
+      <c r="E52" s="200"/>
+      <c r="F52" s="200"/>
+      <c r="G52" s="200"/>
+      <c r="H52" s="201"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="199"/>
-      <c r="C53" s="200"/>
-      <c r="D53" s="213"/>
-      <c r="E53" s="214"/>
-      <c r="F53" s="214"/>
-      <c r="G53" s="214"/>
-      <c r="H53" s="215"/>
+      <c r="B53" s="188"/>
+      <c r="C53" s="189"/>
+      <c r="D53" s="202"/>
+      <c r="E53" s="203"/>
+      <c r="F53" s="203"/>
+      <c r="G53" s="203"/>
+      <c r="H53" s="204"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="195" t="s">
+      <c r="B54" s="184" t="s">
         <v>96</v>
       </c>
-      <c r="C54" s="196"/>
-      <c r="D54" s="192" t="s">
+      <c r="C54" s="185"/>
+      <c r="D54" s="181" t="s">
         <v>98</v>
       </c>
-      <c r="E54" s="193"/>
-      <c r="F54" s="193"/>
-      <c r="G54" s="193"/>
-      <c r="H54" s="194"/>
+      <c r="E54" s="182"/>
+      <c r="F54" s="182"/>
+      <c r="G54" s="182"/>
+      <c r="H54" s="183"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B55" s="17" t="s">
@@ -8433,90 +8442,110 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="170" t="s">
+      <c r="B61" s="171" t="s">
         <v>30</v>
       </c>
-      <c r="C61" s="170"/>
-      <c r="D61" s="170"/>
-      <c r="E61" s="170"/>
-      <c r="F61" s="170" t="s">
+      <c r="C61" s="171"/>
+      <c r="D61" s="171"/>
+      <c r="E61" s="171"/>
+      <c r="F61" s="171" t="s">
         <v>31</v>
       </c>
-      <c r="G61" s="170"/>
-      <c r="H61" s="170"/>
+      <c r="G61" s="171"/>
+      <c r="H61" s="171"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="170"/>
-      <c r="C62" s="170"/>
-      <c r="D62" s="170"/>
-      <c r="E62" s="170"/>
-      <c r="F62" s="170"/>
-      <c r="G62" s="170"/>
-      <c r="H62" s="170"/>
+      <c r="B62" s="171"/>
+      <c r="C62" s="171"/>
+      <c r="D62" s="171"/>
+      <c r="E62" s="171"/>
+      <c r="F62" s="171"/>
+      <c r="G62" s="171"/>
+      <c r="H62" s="171"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="180" t="s">
+      <c r="B63" s="168" t="s">
         <v>32</v>
       </c>
-      <c r="C63" s="180"/>
-      <c r="D63" s="180"/>
-      <c r="E63" s="180"/>
-      <c r="F63" s="180" t="s">
+      <c r="C63" s="168"/>
+      <c r="D63" s="168"/>
+      <c r="E63" s="168"/>
+      <c r="F63" s="168" t="s">
         <v>34</v>
       </c>
-      <c r="G63" s="180"/>
-      <c r="H63" s="180"/>
+      <c r="G63" s="168"/>
+      <c r="H63" s="168"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="180"/>
-      <c r="C64" s="180"/>
-      <c r="D64" s="180"/>
-      <c r="E64" s="180"/>
-      <c r="F64" s="180"/>
-      <c r="G64" s="180"/>
-      <c r="H64" s="180"/>
+      <c r="B64" s="168"/>
+      <c r="C64" s="168"/>
+      <c r="D64" s="168"/>
+      <c r="E64" s="168"/>
+      <c r="F64" s="168"/>
+      <c r="G64" s="168"/>
+      <c r="H64" s="168"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="180" t="s">
+      <c r="B65" s="168" t="s">
         <v>33</v>
       </c>
-      <c r="C65" s="180"/>
-      <c r="D65" s="180"/>
-      <c r="E65" s="180"/>
-      <c r="F65" s="180" t="s">
+      <c r="C65" s="168"/>
+      <c r="D65" s="168"/>
+      <c r="E65" s="168"/>
+      <c r="F65" s="168" t="s">
         <v>34</v>
       </c>
-      <c r="G65" s="180"/>
-      <c r="H65" s="180"/>
+      <c r="G65" s="168"/>
+      <c r="H65" s="168"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="180"/>
-      <c r="C66" s="180"/>
-      <c r="D66" s="180"/>
-      <c r="E66" s="180"/>
-      <c r="F66" s="180"/>
-      <c r="G66" s="180"/>
-      <c r="H66" s="180"/>
+      <c r="B66" s="168"/>
+      <c r="C66" s="168"/>
+      <c r="D66" s="168"/>
+      <c r="E66" s="168"/>
+      <c r="F66" s="168"/>
+      <c r="G66" s="168"/>
+      <c r="H66" s="168"/>
     </row>
     <row r="73" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="181" t="s">
+      <c r="A73" s="169" t="s">
         <v>35</v>
       </c>
-      <c r="B73" s="181"/>
-      <c r="C73" s="181"/>
+      <c r="B73" s="169"/>
+      <c r="C73" s="169"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="182"/>
-      <c r="B74" s="182"/>
-      <c r="C74" s="182"/>
+      <c r="A74" s="170"/>
+      <c r="B74" s="170"/>
+      <c r="C74" s="170"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="182"/>
-      <c r="B75" s="182"/>
-      <c r="C75" s="182"/>
+      <c r="A75" s="170"/>
+      <c r="B75" s="170"/>
+      <c r="C75" s="170"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="H3:I8"/>
+    <mergeCell ref="B28:C29"/>
+    <mergeCell ref="D28:H29"/>
+    <mergeCell ref="D30:H32"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="D33:H35"/>
+    <mergeCell ref="D36:H38"/>
+    <mergeCell ref="D39:H40"/>
+    <mergeCell ref="B30:C32"/>
+    <mergeCell ref="B33:C35"/>
+    <mergeCell ref="B36:C38"/>
+    <mergeCell ref="B39:C40"/>
     <mergeCell ref="B65:E66"/>
     <mergeCell ref="F63:H64"/>
     <mergeCell ref="F65:H66"/>
@@ -8533,26 +8562,6 @@
     <mergeCell ref="D49:H50"/>
     <mergeCell ref="D51:H53"/>
     <mergeCell ref="B51:C53"/>
-    <mergeCell ref="D33:H35"/>
-    <mergeCell ref="D36:H38"/>
-    <mergeCell ref="D39:H40"/>
-    <mergeCell ref="B30:C32"/>
-    <mergeCell ref="B33:C35"/>
-    <mergeCell ref="B36:C38"/>
-    <mergeCell ref="B39:C40"/>
-    <mergeCell ref="H3:I8"/>
-    <mergeCell ref="B28:C29"/>
-    <mergeCell ref="D28:H29"/>
-    <mergeCell ref="D30:H32"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:I16"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8671,39 +8680,39 @@
       <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="225" t="s">
+      <c r="D13" s="217" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="225"/>
+      <c r="E13" s="217"/>
       <c r="F13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="241" t="s">
+      <c r="G13" s="218" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="241"/>
-      <c r="I13" s="241"/>
+      <c r="H13" s="218"/>
+      <c r="I13" s="218"/>
       <c r="J13" s="33"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D14" s="242" t="s">
+      <c r="D14" s="219" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="242"/>
-      <c r="G14" s="243" t="s">
+      <c r="E14" s="219"/>
+      <c r="G14" s="220" t="s">
         <v>130</v>
       </c>
-      <c r="H14" s="243"/>
-      <c r="I14" s="243"/>
+      <c r="H14" s="220"/>
+      <c r="I14" s="220"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D15" s="241" t="s">
+      <c r="D15" s="218" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="241"/>
-      <c r="F15" s="241"/>
-      <c r="G15" s="241"/>
-      <c r="H15" s="241"/>
+      <c r="E15" s="218"/>
+      <c r="F15" s="218"/>
+      <c r="G15" s="218"/>
+      <c r="H15" s="218"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
@@ -8713,114 +8722,114 @@
       <c r="G16" s="28"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="177" t="s">
+      <c r="B17" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="177"/>
-      <c r="D17" s="177"/>
-      <c r="E17" s="177"/>
-      <c r="F17" s="177"/>
-      <c r="G17" s="177"/>
-      <c r="H17" s="177"/>
-      <c r="I17" s="177"/>
-      <c r="J17" s="177"/>
+      <c r="C17" s="214"/>
+      <c r="D17" s="214"/>
+      <c r="E17" s="214"/>
+      <c r="F17" s="214"/>
+      <c r="G17" s="214"/>
+      <c r="H17" s="214"/>
+      <c r="I17" s="214"/>
+      <c r="J17" s="214"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="244" t="s">
+      <c r="B18" s="221" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="244"/>
-      <c r="D18" s="244"/>
-      <c r="E18" s="244"/>
-      <c r="F18" s="244"/>
-      <c r="G18" s="244"/>
-      <c r="H18" s="244"/>
-      <c r="I18" s="244"/>
+      <c r="C18" s="221"/>
+      <c r="D18" s="221"/>
+      <c r="E18" s="221"/>
+      <c r="F18" s="221"/>
+      <c r="G18" s="221"/>
+      <c r="H18" s="221"/>
+      <c r="I18" s="221"/>
       <c r="J18" s="41"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="245" t="s">
+      <c r="B19" s="222" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="245"/>
-      <c r="D19" s="245"/>
-      <c r="E19" s="245"/>
-      <c r="F19" s="245"/>
-      <c r="G19" s="245"/>
-      <c r="H19" s="245"/>
-      <c r="I19" s="245"/>
+      <c r="C19" s="222"/>
+      <c r="D19" s="222"/>
+      <c r="E19" s="222"/>
+      <c r="F19" s="222"/>
+      <c r="G19" s="222"/>
+      <c r="H19" s="222"/>
+      <c r="I19" s="222"/>
       <c r="J19" s="35"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="245" t="s">
+      <c r="B20" s="222" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="245"/>
-      <c r="D20" s="245"/>
-      <c r="E20" s="245"/>
-      <c r="F20" s="245"/>
-      <c r="G20" s="245"/>
-      <c r="H20" s="245"/>
-      <c r="I20" s="245"/>
+      <c r="C20" s="222"/>
+      <c r="D20" s="222"/>
+      <c r="E20" s="222"/>
+      <c r="F20" s="222"/>
+      <c r="G20" s="222"/>
+      <c r="H20" s="222"/>
+      <c r="I20" s="222"/>
       <c r="J20" s="35"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="154" t="s">
+      <c r="B22" s="136" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="154"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="154"/>
-      <c r="F22" s="154"/>
-      <c r="G22" s="154"/>
-      <c r="H22" s="154"/>
-      <c r="I22" s="154"/>
-      <c r="J22" s="154"/>
+      <c r="C22" s="136"/>
+      <c r="D22" s="136"/>
+      <c r="E22" s="136"/>
+      <c r="F22" s="136"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="136"/>
+      <c r="I22" s="136"/>
+      <c r="J22" s="136"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="154" t="s">
+      <c r="B23" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="154"/>
-      <c r="D23" s="154"/>
-      <c r="E23" s="154"/>
-      <c r="F23" s="154"/>
-      <c r="G23" s="154"/>
-      <c r="H23" s="154"/>
-      <c r="I23" s="154"/>
-      <c r="J23" s="154"/>
+      <c r="C23" s="136"/>
+      <c r="D23" s="136"/>
+      <c r="E23" s="136"/>
+      <c r="F23" s="136"/>
+      <c r="G23" s="136"/>
+      <c r="H23" s="136"/>
+      <c r="I23" s="136"/>
+      <c r="J23" s="136"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="159" t="s">
+      <c r="C24" s="147" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="159"/>
-      <c r="E24" s="159"/>
-      <c r="F24" s="159"/>
-      <c r="G24" s="159"/>
-      <c r="H24" s="159"/>
-      <c r="I24" s="159"/>
-      <c r="J24" s="159"/>
+      <c r="D24" s="147"/>
+      <c r="E24" s="147"/>
+      <c r="F24" s="147"/>
+      <c r="G24" s="147"/>
+      <c r="H24" s="147"/>
+      <c r="I24" s="147"/>
+      <c r="J24" s="147"/>
     </row>
     <row r="26" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="238" t="s">
+      <c r="D26" s="223" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="239"/>
-      <c r="F26" s="239"/>
-      <c r="G26" s="239"/>
-      <c r="H26" s="239"/>
-      <c r="I26" s="240"/>
+      <c r="E26" s="224"/>
+      <c r="F26" s="224"/>
+      <c r="G26" s="224"/>
+      <c r="H26" s="224"/>
+      <c r="I26" s="225"/>
     </row>
     <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="227" t="s">
+      <c r="C27" s="226" t="s">
         <v>19</v>
       </c>
       <c r="D27" s="229" t="s">
@@ -8833,25 +8842,25 @@
       <c r="I27" s="231"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C28" s="235"/>
-      <c r="D28" s="236"/>
-      <c r="E28" s="137"/>
-      <c r="F28" s="137"/>
-      <c r="G28" s="137"/>
-      <c r="H28" s="137"/>
-      <c r="I28" s="237"/>
+      <c r="C28" s="227"/>
+      <c r="D28" s="232"/>
+      <c r="E28" s="139"/>
+      <c r="F28" s="139"/>
+      <c r="G28" s="139"/>
+      <c r="H28" s="139"/>
+      <c r="I28" s="233"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C29" s="228"/>
-      <c r="D29" s="232"/>
-      <c r="E29" s="233"/>
-      <c r="F29" s="233"/>
-      <c r="G29" s="233"/>
-      <c r="H29" s="233"/>
-      <c r="I29" s="234"/>
+      <c r="D29" s="234"/>
+      <c r="E29" s="235"/>
+      <c r="F29" s="235"/>
+      <c r="G29" s="235"/>
+      <c r="H29" s="235"/>
+      <c r="I29" s="236"/>
     </row>
     <row r="30" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="227" t="s">
+      <c r="C30" s="226" t="s">
         <v>20</v>
       </c>
       <c r="D30" s="229" t="s">
@@ -8864,25 +8873,25 @@
       <c r="I30" s="231"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C31" s="235"/>
-      <c r="D31" s="236"/>
-      <c r="E31" s="137"/>
-      <c r="F31" s="137"/>
-      <c r="G31" s="137"/>
-      <c r="H31" s="137"/>
-      <c r="I31" s="237"/>
+      <c r="C31" s="227"/>
+      <c r="D31" s="232"/>
+      <c r="E31" s="139"/>
+      <c r="F31" s="139"/>
+      <c r="G31" s="139"/>
+      <c r="H31" s="139"/>
+      <c r="I31" s="233"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C32" s="228"/>
-      <c r="D32" s="232"/>
-      <c r="E32" s="233"/>
-      <c r="F32" s="233"/>
-      <c r="G32" s="233"/>
-      <c r="H32" s="233"/>
-      <c r="I32" s="234"/>
+      <c r="D32" s="234"/>
+      <c r="E32" s="235"/>
+      <c r="F32" s="235"/>
+      <c r="G32" s="235"/>
+      <c r="H32" s="235"/>
+      <c r="I32" s="236"/>
     </row>
     <row r="33" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="227" t="s">
+      <c r="C33" s="226" t="s">
         <v>21</v>
       </c>
       <c r="D33" s="229" t="s">
@@ -8895,25 +8904,25 @@
       <c r="I33" s="231"/>
     </row>
     <row r="34" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C34" s="235"/>
-      <c r="D34" s="236"/>
-      <c r="E34" s="137"/>
-      <c r="F34" s="137"/>
-      <c r="G34" s="137"/>
-      <c r="H34" s="137"/>
-      <c r="I34" s="237"/>
+      <c r="C34" s="227"/>
+      <c r="D34" s="232"/>
+      <c r="E34" s="139"/>
+      <c r="F34" s="139"/>
+      <c r="G34" s="139"/>
+      <c r="H34" s="139"/>
+      <c r="I34" s="233"/>
     </row>
     <row r="35" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C35" s="228"/>
-      <c r="D35" s="232"/>
-      <c r="E35" s="233"/>
-      <c r="F35" s="233"/>
-      <c r="G35" s="233"/>
-      <c r="H35" s="233"/>
-      <c r="I35" s="234"/>
+      <c r="D35" s="234"/>
+      <c r="E35" s="235"/>
+      <c r="F35" s="235"/>
+      <c r="G35" s="235"/>
+      <c r="H35" s="235"/>
+      <c r="I35" s="236"/>
     </row>
     <row r="36" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="227" t="s">
+      <c r="C36" s="226" t="s">
         <v>22</v>
       </c>
       <c r="D36" s="229" t="s">
@@ -8926,52 +8935,52 @@
       <c r="I36" s="231"/>
     </row>
     <row r="37" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C37" s="235"/>
-      <c r="D37" s="236"/>
-      <c r="E37" s="137"/>
-      <c r="F37" s="137"/>
-      <c r="G37" s="137"/>
-      <c r="H37" s="137"/>
-      <c r="I37" s="237"/>
+      <c r="C37" s="227"/>
+      <c r="D37" s="232"/>
+      <c r="E37" s="139"/>
+      <c r="F37" s="139"/>
+      <c r="G37" s="139"/>
+      <c r="H37" s="139"/>
+      <c r="I37" s="233"/>
     </row>
     <row r="38" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C38" s="228"/>
-      <c r="D38" s="232"/>
-      <c r="E38" s="233"/>
-      <c r="F38" s="233"/>
-      <c r="G38" s="233"/>
-      <c r="H38" s="233"/>
-      <c r="I38" s="234"/>
+      <c r="D38" s="234"/>
+      <c r="E38" s="235"/>
+      <c r="F38" s="235"/>
+      <c r="G38" s="235"/>
+      <c r="H38" s="235"/>
+      <c r="I38" s="236"/>
     </row>
     <row r="39" spans="3:19" x14ac:dyDescent="0.25">
       <c r="K39" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="L39" s="159" t="s">
+      <c r="L39" s="147" t="s">
         <v>128</v>
       </c>
-      <c r="M39" s="159"/>
-      <c r="N39" s="159"/>
-      <c r="O39" s="159"/>
-      <c r="P39" s="159"/>
-      <c r="Q39" s="159"/>
-      <c r="R39" s="159"/>
-      <c r="S39" s="159"/>
+      <c r="M39" s="147"/>
+      <c r="N39" s="147"/>
+      <c r="O39" s="147"/>
+      <c r="P39" s="147"/>
+      <c r="Q39" s="147"/>
+      <c r="R39" s="147"/>
+      <c r="S39" s="147"/>
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.25">
       <c r="K42" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="L42" s="159" t="s">
+      <c r="L42" s="147" t="s">
         <v>129</v>
       </c>
-      <c r="M42" s="159"/>
-      <c r="N42" s="159"/>
-      <c r="O42" s="159"/>
-      <c r="P42" s="159"/>
-      <c r="Q42" s="159"/>
-      <c r="R42" s="159"/>
-      <c r="S42" s="159"/>
+      <c r="M42" s="147"/>
+      <c r="N42" s="147"/>
+      <c r="O42" s="147"/>
+      <c r="P42" s="147"/>
+      <c r="Q42" s="147"/>
+      <c r="R42" s="147"/>
+      <c r="S42" s="147"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G50" s="34" t="s">
@@ -9012,32 +9021,32 @@
       <c r="B56" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="137" t="s">
+      <c r="C56" s="139" t="s">
         <v>105</v>
       </c>
-      <c r="D56" s="137"/>
-      <c r="E56" s="137"/>
-      <c r="F56" s="137"/>
-      <c r="G56" s="137"/>
-      <c r="H56" s="137"/>
-      <c r="I56" s="137"/>
-      <c r="J56" s="137"/>
+      <c r="D56" s="139"/>
+      <c r="E56" s="139"/>
+      <c r="F56" s="139"/>
+      <c r="G56" s="139"/>
+      <c r="H56" s="139"/>
+      <c r="I56" s="139"/>
+      <c r="J56" s="139"/>
     </row>
     <row r="58" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="D58" s="238" t="s">
+      <c r="D58" s="223" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="239"/>
-      <c r="F58" s="239"/>
-      <c r="G58" s="239"/>
-      <c r="H58" s="239"/>
-      <c r="I58" s="240"/>
+      <c r="E58" s="224"/>
+      <c r="F58" s="224"/>
+      <c r="G58" s="224"/>
+      <c r="H58" s="224"/>
+      <c r="I58" s="225"/>
     </row>
     <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="227" t="s">
+      <c r="C59" s="226" t="s">
         <v>122</v>
       </c>
       <c r="D59" s="229" t="s">
@@ -9051,15 +9060,15 @@
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C60" s="228"/>
-      <c r="D60" s="232"/>
-      <c r="E60" s="233"/>
-      <c r="F60" s="233"/>
-      <c r="G60" s="233"/>
-      <c r="H60" s="233"/>
-      <c r="I60" s="234"/>
+      <c r="D60" s="234"/>
+      <c r="E60" s="235"/>
+      <c r="F60" s="235"/>
+      <c r="G60" s="235"/>
+      <c r="H60" s="235"/>
+      <c r="I60" s="236"/>
     </row>
     <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="227" t="s">
+      <c r="C61" s="226" t="s">
         <v>123</v>
       </c>
       <c r="D61" s="229" t="s">
@@ -9073,15 +9082,15 @@
     </row>
     <row r="62" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C62" s="228"/>
-      <c r="D62" s="232"/>
-      <c r="E62" s="233"/>
-      <c r="F62" s="233"/>
-      <c r="G62" s="233"/>
-      <c r="H62" s="233"/>
-      <c r="I62" s="234"/>
+      <c r="D62" s="234"/>
+      <c r="E62" s="235"/>
+      <c r="F62" s="235"/>
+      <c r="G62" s="235"/>
+      <c r="H62" s="235"/>
+      <c r="I62" s="236"/>
     </row>
     <row r="63" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="227" t="s">
+      <c r="C63" s="226" t="s">
         <v>124</v>
       </c>
       <c r="D63" s="229" t="s">
@@ -9095,15 +9104,15 @@
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C64" s="228"/>
-      <c r="D64" s="232"/>
-      <c r="E64" s="233"/>
-      <c r="F64" s="233"/>
-      <c r="G64" s="233"/>
-      <c r="H64" s="233"/>
-      <c r="I64" s="234"/>
+      <c r="D64" s="234"/>
+      <c r="E64" s="235"/>
+      <c r="F64" s="235"/>
+      <c r="G64" s="235"/>
+      <c r="H64" s="235"/>
+      <c r="I64" s="236"/>
     </row>
     <row r="65" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="227" t="s">
+      <c r="C65" s="226" t="s">
         <v>125</v>
       </c>
       <c r="D65" s="229" t="s">
@@ -9116,25 +9125,25 @@
       <c r="I65" s="231"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C66" s="235"/>
-      <c r="D66" s="236"/>
-      <c r="E66" s="137"/>
-      <c r="F66" s="137"/>
-      <c r="G66" s="137"/>
-      <c r="H66" s="137"/>
-      <c r="I66" s="237"/>
+      <c r="C66" s="227"/>
+      <c r="D66" s="232"/>
+      <c r="E66" s="139"/>
+      <c r="F66" s="139"/>
+      <c r="G66" s="139"/>
+      <c r="H66" s="139"/>
+      <c r="I66" s="233"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C67" s="228"/>
-      <c r="D67" s="232"/>
-      <c r="E67" s="233"/>
-      <c r="F67" s="233"/>
-      <c r="G67" s="233"/>
-      <c r="H67" s="233"/>
-      <c r="I67" s="234"/>
+      <c r="D67" s="234"/>
+      <c r="E67" s="235"/>
+      <c r="F67" s="235"/>
+      <c r="G67" s="235"/>
+      <c r="H67" s="235"/>
+      <c r="I67" s="236"/>
     </row>
     <row r="68" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="227" t="s">
+      <c r="C68" s="226" t="s">
         <v>126</v>
       </c>
       <c r="D68" s="229" t="s">
@@ -9147,22 +9156,22 @@
       <c r="I68" s="231"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C69" s="235"/>
-      <c r="D69" s="236"/>
-      <c r="E69" s="137"/>
-      <c r="F69" s="137"/>
-      <c r="G69" s="137"/>
-      <c r="H69" s="137"/>
-      <c r="I69" s="237"/>
+      <c r="C69" s="227"/>
+      <c r="D69" s="232"/>
+      <c r="E69" s="139"/>
+      <c r="F69" s="139"/>
+      <c r="G69" s="139"/>
+      <c r="H69" s="139"/>
+      <c r="I69" s="233"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C70" s="228"/>
-      <c r="D70" s="232"/>
-      <c r="E70" s="233"/>
-      <c r="F70" s="233"/>
-      <c r="G70" s="233"/>
-      <c r="H70" s="233"/>
-      <c r="I70" s="234"/>
+      <c r="D70" s="234"/>
+      <c r="E70" s="235"/>
+      <c r="F70" s="235"/>
+      <c r="G70" s="235"/>
+      <c r="H70" s="235"/>
+      <c r="I70" s="236"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
@@ -9173,53 +9182,53 @@
       <c r="C74" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D74" s="219" t="s">
+      <c r="D74" s="238" t="s">
         <v>31</v>
       </c>
-      <c r="E74" s="220"/>
-      <c r="F74" s="220"/>
-      <c r="G74" s="220"/>
-      <c r="H74" s="220"/>
-      <c r="I74" s="221"/>
+      <c r="E74" s="239"/>
+      <c r="F74" s="239"/>
+      <c r="G74" s="239"/>
+      <c r="H74" s="239"/>
+      <c r="I74" s="240"/>
     </row>
     <row r="75" spans="2:9" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C75" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D75" s="222" t="s">
+      <c r="D75" s="241" t="s">
         <v>34</v>
       </c>
-      <c r="E75" s="223"/>
-      <c r="F75" s="223"/>
-      <c r="G75" s="223"/>
-      <c r="H75" s="223"/>
-      <c r="I75" s="224"/>
+      <c r="E75" s="242"/>
+      <c r="F75" s="242"/>
+      <c r="G75" s="242"/>
+      <c r="H75" s="242"/>
+      <c r="I75" s="243"/>
     </row>
     <row r="76" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C76" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D76" s="222" t="s">
+      <c r="D76" s="241" t="s">
         <v>34</v>
       </c>
-      <c r="E76" s="223"/>
-      <c r="F76" s="223"/>
-      <c r="G76" s="223"/>
-      <c r="H76" s="223"/>
-      <c r="I76" s="224"/>
+      <c r="E76" s="242"/>
+      <c r="F76" s="242"/>
+      <c r="G76" s="242"/>
+      <c r="H76" s="242"/>
+      <c r="I76" s="243"/>
     </row>
     <row r="77" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C77" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="D77" s="222" t="s">
+      <c r="D77" s="241" t="s">
         <v>34</v>
       </c>
-      <c r="E77" s="223"/>
-      <c r="F77" s="223"/>
-      <c r="G77" s="223"/>
-      <c r="H77" s="223"/>
-      <c r="I77" s="224"/>
+      <c r="E77" s="242"/>
+      <c r="F77" s="242"/>
+      <c r="G77" s="242"/>
+      <c r="H77" s="242"/>
+      <c r="I77" s="243"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
@@ -9238,36 +9247,45 @@
       <c r="B91" t="s">
         <v>113</v>
       </c>
-      <c r="C91" s="225" t="s">
+      <c r="C91" s="217" t="s">
         <v>114</v>
       </c>
-      <c r="D91" s="225"/>
+      <c r="D91" s="217"/>
       <c r="F91" t="s">
         <v>115</v>
       </c>
-      <c r="G91" s="226">
+      <c r="G91" s="244">
         <f ca="1">TODAY()</f>
-        <v>45315</v>
-      </c>
-      <c r="H91" s="226"/>
-      <c r="I91" s="226"/>
+        <v>45357</v>
+      </c>
+      <c r="H91" s="244"/>
+      <c r="I91" s="244"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G92" s="218"/>
-      <c r="H92" s="218"/>
+      <c r="G92" s="237"/>
+      <c r="H92" s="237"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="D74:I74"/>
+    <mergeCell ref="D75:I75"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:I64"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="D65:I67"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="D68:I70"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="D58:I58"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:I60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:I62"/>
     <mergeCell ref="L42:S42"/>
     <mergeCell ref="B23:J23"/>
     <mergeCell ref="C24:J24"/>
@@ -9281,25 +9299,16 @@
     <mergeCell ref="C36:C38"/>
     <mergeCell ref="D36:I38"/>
     <mergeCell ref="L39:S39"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="D58:I58"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:I60"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:I62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:I64"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="D65:I67"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="D68:I70"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="D74:I74"/>
-    <mergeCell ref="D75:I75"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B20:I20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{027AC6F8-6212-42AF-BEE9-C1D52F5D423A}"/>
@@ -9422,40 +9431,40 @@
       <c r="B13" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="225" t="s">
+      <c r="C13" s="217" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="225"/>
+      <c r="D13" s="217"/>
       <c r="E13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="225" t="s">
+      <c r="F13" s="217" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="225"/>
-      <c r="H13" s="225"/>
+      <c r="G13" s="217"/>
+      <c r="H13" s="217"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C14" s="242" t="s">
+      <c r="C14" s="219" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="242"/>
-      <c r="F14" s="242" t="s">
+      <c r="D14" s="219"/>
+      <c r="F14" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="242"/>
-      <c r="H14" s="242"/>
+      <c r="G14" s="219"/>
+      <c r="H14" s="219"/>
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="225" t="s">
+      <c r="C15" s="217" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="225"/>
-      <c r="E15" s="225"/>
-      <c r="F15" s="225"/>
-      <c r="G15" s="225"/>
-      <c r="H15" s="225"/>
+      <c r="D15" s="217"/>
+      <c r="E15" s="217"/>
+      <c r="F15" s="217"/>
+      <c r="G15" s="217"/>
+      <c r="H15" s="217"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E16" s="32" t="s">
@@ -9464,232 +9473,232 @@
       <c r="F16" s="28"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="177" t="s">
+      <c r="B17" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="177"/>
-      <c r="D17" s="177"/>
-      <c r="E17" s="177"/>
-      <c r="F17" s="177"/>
-      <c r="G17" s="177"/>
-      <c r="H17" s="177"/>
-      <c r="I17" s="177"/>
-      <c r="J17" s="177"/>
+      <c r="C17" s="214"/>
+      <c r="D17" s="214"/>
+      <c r="E17" s="214"/>
+      <c r="F17" s="214"/>
+      <c r="G17" s="214"/>
+      <c r="H17" s="214"/>
+      <c r="I17" s="214"/>
+      <c r="J17" s="214"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="244" t="s">
+      <c r="B18" s="221" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="244"/>
-      <c r="D18" s="244"/>
-      <c r="E18" s="244"/>
-      <c r="F18" s="244"/>
-      <c r="G18" s="244"/>
-      <c r="H18" s="244"/>
-      <c r="I18" s="244"/>
+      <c r="C18" s="221"/>
+      <c r="D18" s="221"/>
+      <c r="E18" s="221"/>
+      <c r="F18" s="221"/>
+      <c r="G18" s="221"/>
+      <c r="H18" s="221"/>
+      <c r="I18" s="221"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="245" t="s">
+      <c r="B19" s="222" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="245"/>
-      <c r="D19" s="245"/>
-      <c r="E19" s="245"/>
-      <c r="F19" s="245"/>
-      <c r="G19" s="245"/>
-      <c r="H19" s="245"/>
-      <c r="I19" s="245"/>
+      <c r="C19" s="222"/>
+      <c r="D19" s="222"/>
+      <c r="E19" s="222"/>
+      <c r="F19" s="222"/>
+      <c r="G19" s="222"/>
+      <c r="H19" s="222"/>
+      <c r="I19" s="222"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="245" t="s">
+      <c r="B20" s="222" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="245"/>
-      <c r="D20" s="245"/>
-      <c r="E20" s="245"/>
-      <c r="F20" s="245"/>
-      <c r="G20" s="245"/>
-      <c r="H20" s="245"/>
-      <c r="I20" s="245"/>
+      <c r="C20" s="222"/>
+      <c r="D20" s="222"/>
+      <c r="E20" s="222"/>
+      <c r="F20" s="222"/>
+      <c r="G20" s="222"/>
+      <c r="H20" s="222"/>
+      <c r="I20" s="222"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="154" t="s">
+      <c r="B22" s="136" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="154"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="154"/>
-      <c r="F22" s="154"/>
-      <c r="G22" s="154"/>
-      <c r="H22" s="154"/>
-      <c r="I22" s="154"/>
-      <c r="J22" s="154"/>
+      <c r="C22" s="136"/>
+      <c r="D22" s="136"/>
+      <c r="E22" s="136"/>
+      <c r="F22" s="136"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="136"/>
+      <c r="I22" s="136"/>
+      <c r="J22" s="136"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="154" t="s">
+      <c r="B23" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="154"/>
-      <c r="D23" s="154"/>
-      <c r="E23" s="154"/>
-      <c r="F23" s="154"/>
-      <c r="G23" s="154"/>
-      <c r="H23" s="154"/>
-      <c r="I23" s="154"/>
-      <c r="J23" s="154"/>
+      <c r="C23" s="136"/>
+      <c r="D23" s="136"/>
+      <c r="E23" s="136"/>
+      <c r="F23" s="136"/>
+      <c r="G23" s="136"/>
+      <c r="H23" s="136"/>
+      <c r="I23" s="136"/>
+      <c r="J23" s="136"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="159" t="s">
+      <c r="C24" s="147" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="159"/>
-      <c r="E24" s="159"/>
-      <c r="F24" s="159"/>
-      <c r="G24" s="159"/>
-      <c r="H24" s="159"/>
-      <c r="I24" s="159"/>
-      <c r="J24" s="159"/>
+      <c r="D24" s="147"/>
+      <c r="E24" s="147"/>
+      <c r="F24" s="147"/>
+      <c r="G24" s="147"/>
+      <c r="H24" s="147"/>
+      <c r="I24" s="147"/>
+      <c r="J24" s="147"/>
     </row>
     <row r="26" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="250" t="s">
+      <c r="D26" s="245" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="250"/>
-      <c r="F26" s="250"/>
-      <c r="G26" s="250"/>
-      <c r="H26" s="250"/>
-      <c r="I26" s="250"/>
+      <c r="E26" s="245"/>
+      <c r="F26" s="245"/>
+      <c r="G26" s="245"/>
+      <c r="H26" s="245"/>
+      <c r="I26" s="245"/>
     </row>
     <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="247" t="s">
+      <c r="C27" s="246" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="248" t="s">
+      <c r="D27" s="247" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="248"/>
-      <c r="F27" s="248"/>
-      <c r="G27" s="248"/>
-      <c r="H27" s="248"/>
-      <c r="I27" s="248"/>
+      <c r="E27" s="247"/>
+      <c r="F27" s="247"/>
+      <c r="G27" s="247"/>
+      <c r="H27" s="247"/>
+      <c r="I27" s="247"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C28" s="247"/>
-      <c r="D28" s="248"/>
-      <c r="E28" s="248"/>
-      <c r="F28" s="248"/>
-      <c r="G28" s="248"/>
-      <c r="H28" s="248"/>
-      <c r="I28" s="248"/>
+      <c r="C28" s="246"/>
+      <c r="D28" s="247"/>
+      <c r="E28" s="247"/>
+      <c r="F28" s="247"/>
+      <c r="G28" s="247"/>
+      <c r="H28" s="247"/>
+      <c r="I28" s="247"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C29" s="247"/>
-      <c r="D29" s="248"/>
-      <c r="E29" s="248"/>
-      <c r="F29" s="248"/>
-      <c r="G29" s="248"/>
-      <c r="H29" s="248"/>
-      <c r="I29" s="248"/>
+      <c r="C29" s="246"/>
+      <c r="D29" s="247"/>
+      <c r="E29" s="247"/>
+      <c r="F29" s="247"/>
+      <c r="G29" s="247"/>
+      <c r="H29" s="247"/>
+      <c r="I29" s="247"/>
     </row>
     <row r="30" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="247" t="s">
+      <c r="C30" s="246" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="248" t="s">
+      <c r="D30" s="247" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="248"/>
-      <c r="F30" s="248"/>
-      <c r="G30" s="248"/>
-      <c r="H30" s="248"/>
-      <c r="I30" s="248"/>
+      <c r="E30" s="247"/>
+      <c r="F30" s="247"/>
+      <c r="G30" s="247"/>
+      <c r="H30" s="247"/>
+      <c r="I30" s="247"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C31" s="247"/>
-      <c r="D31" s="248"/>
-      <c r="E31" s="248"/>
-      <c r="F31" s="248"/>
-      <c r="G31" s="248"/>
-      <c r="H31" s="248"/>
-      <c r="I31" s="248"/>
+      <c r="C31" s="246"/>
+      <c r="D31" s="247"/>
+      <c r="E31" s="247"/>
+      <c r="F31" s="247"/>
+      <c r="G31" s="247"/>
+      <c r="H31" s="247"/>
+      <c r="I31" s="247"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C32" s="247"/>
-      <c r="D32" s="248"/>
-      <c r="E32" s="248"/>
-      <c r="F32" s="248"/>
-      <c r="G32" s="248"/>
-      <c r="H32" s="248"/>
-      <c r="I32" s="248"/>
+      <c r="C32" s="246"/>
+      <c r="D32" s="247"/>
+      <c r="E32" s="247"/>
+      <c r="F32" s="247"/>
+      <c r="G32" s="247"/>
+      <c r="H32" s="247"/>
+      <c r="I32" s="247"/>
     </row>
     <row r="33" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="247" t="s">
+      <c r="C33" s="246" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="248" t="s">
+      <c r="D33" s="247" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="248"/>
-      <c r="F33" s="248"/>
-      <c r="G33" s="248"/>
-      <c r="H33" s="248"/>
-      <c r="I33" s="248"/>
+      <c r="E33" s="247"/>
+      <c r="F33" s="247"/>
+      <c r="G33" s="247"/>
+      <c r="H33" s="247"/>
+      <c r="I33" s="247"/>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C34" s="247"/>
-      <c r="D34" s="248"/>
-      <c r="E34" s="248"/>
-      <c r="F34" s="248"/>
-      <c r="G34" s="248"/>
-      <c r="H34" s="248"/>
-      <c r="I34" s="248"/>
+      <c r="C34" s="246"/>
+      <c r="D34" s="247"/>
+      <c r="E34" s="247"/>
+      <c r="F34" s="247"/>
+      <c r="G34" s="247"/>
+      <c r="H34" s="247"/>
+      <c r="I34" s="247"/>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C35" s="247"/>
-      <c r="D35" s="248"/>
-      <c r="E35" s="248"/>
-      <c r="F35" s="248"/>
-      <c r="G35" s="248"/>
-      <c r="H35" s="248"/>
-      <c r="I35" s="248"/>
+      <c r="C35" s="246"/>
+      <c r="D35" s="247"/>
+      <c r="E35" s="247"/>
+      <c r="F35" s="247"/>
+      <c r="G35" s="247"/>
+      <c r="H35" s="247"/>
+      <c r="I35" s="247"/>
     </row>
     <row r="36" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="247" t="s">
+      <c r="C36" s="246" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="248" t="s">
+      <c r="D36" s="247" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="248"/>
-      <c r="F36" s="248"/>
-      <c r="G36" s="248"/>
-      <c r="H36" s="248"/>
-      <c r="I36" s="248"/>
+      <c r="E36" s="247"/>
+      <c r="F36" s="247"/>
+      <c r="G36" s="247"/>
+      <c r="H36" s="247"/>
+      <c r="I36" s="247"/>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C37" s="247"/>
-      <c r="D37" s="248"/>
-      <c r="E37" s="248"/>
-      <c r="F37" s="248"/>
-      <c r="G37" s="248"/>
-      <c r="H37" s="248"/>
-      <c r="I37" s="248"/>
+      <c r="C37" s="246"/>
+      <c r="D37" s="247"/>
+      <c r="E37" s="247"/>
+      <c r="F37" s="247"/>
+      <c r="G37" s="247"/>
+      <c r="H37" s="247"/>
+      <c r="I37" s="247"/>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C38" s="247"/>
-      <c r="D38" s="248"/>
-      <c r="E38" s="248"/>
-      <c r="F38" s="248"/>
-      <c r="G38" s="248"/>
-      <c r="H38" s="248"/>
-      <c r="I38" s="248"/>
+      <c r="C38" s="246"/>
+      <c r="D38" s="247"/>
+      <c r="E38" s="247"/>
+      <c r="F38" s="247"/>
+      <c r="G38" s="247"/>
+      <c r="H38" s="247"/>
+      <c r="I38" s="247"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G50" s="34" t="s">
@@ -9730,157 +9739,157 @@
       <c r="B56" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="137" t="s">
+      <c r="C56" s="139" t="s">
         <v>105</v>
       </c>
-      <c r="D56" s="137"/>
-      <c r="E56" s="137"/>
-      <c r="F56" s="137"/>
-      <c r="G56" s="137"/>
-      <c r="H56" s="137"/>
-      <c r="I56" s="137"/>
-      <c r="J56" s="137"/>
+      <c r="D56" s="139"/>
+      <c r="E56" s="139"/>
+      <c r="F56" s="139"/>
+      <c r="G56" s="139"/>
+      <c r="H56" s="139"/>
+      <c r="I56" s="139"/>
+      <c r="J56" s="139"/>
     </row>
     <row r="58" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="D58" s="250" t="s">
+      <c r="D58" s="245" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="250"/>
-      <c r="F58" s="250"/>
-      <c r="G58" s="250"/>
-      <c r="H58" s="250"/>
-      <c r="I58" s="250"/>
+      <c r="E58" s="245"/>
+      <c r="F58" s="245"/>
+      <c r="G58" s="245"/>
+      <c r="H58" s="245"/>
+      <c r="I58" s="245"/>
     </row>
     <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="247" t="s">
+      <c r="C59" s="246" t="s">
         <v>122</v>
       </c>
-      <c r="D59" s="248" t="s">
+      <c r="D59" s="247" t="s">
         <v>106</v>
       </c>
-      <c r="E59" s="248"/>
-      <c r="F59" s="248"/>
-      <c r="G59" s="248"/>
-      <c r="H59" s="248"/>
-      <c r="I59" s="248"/>
+      <c r="E59" s="247"/>
+      <c r="F59" s="247"/>
+      <c r="G59" s="247"/>
+      <c r="H59" s="247"/>
+      <c r="I59" s="247"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="247"/>
-      <c r="D60" s="248"/>
-      <c r="E60" s="248"/>
-      <c r="F60" s="248"/>
-      <c r="G60" s="248"/>
-      <c r="H60" s="248"/>
-      <c r="I60" s="248"/>
+      <c r="C60" s="246"/>
+      <c r="D60" s="247"/>
+      <c r="E60" s="247"/>
+      <c r="F60" s="247"/>
+      <c r="G60" s="247"/>
+      <c r="H60" s="247"/>
+      <c r="I60" s="247"/>
     </row>
     <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="247" t="s">
+      <c r="C61" s="246" t="s">
         <v>123</v>
       </c>
-      <c r="D61" s="248" t="s">
+      <c r="D61" s="247" t="s">
         <v>107</v>
       </c>
-      <c r="E61" s="248"/>
-      <c r="F61" s="248"/>
-      <c r="G61" s="248"/>
-      <c r="H61" s="248"/>
-      <c r="I61" s="248"/>
+      <c r="E61" s="247"/>
+      <c r="F61" s="247"/>
+      <c r="G61" s="247"/>
+      <c r="H61" s="247"/>
+      <c r="I61" s="247"/>
     </row>
     <row r="62" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="247"/>
-      <c r="D62" s="248"/>
-      <c r="E62" s="248"/>
-      <c r="F62" s="248"/>
-      <c r="G62" s="248"/>
-      <c r="H62" s="248"/>
-      <c r="I62" s="248"/>
+      <c r="C62" s="246"/>
+      <c r="D62" s="247"/>
+      <c r="E62" s="247"/>
+      <c r="F62" s="247"/>
+      <c r="G62" s="247"/>
+      <c r="H62" s="247"/>
+      <c r="I62" s="247"/>
     </row>
     <row r="63" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="247" t="s">
+      <c r="C63" s="246" t="s">
         <v>124</v>
       </c>
-      <c r="D63" s="248" t="s">
+      <c r="D63" s="247" t="s">
         <v>108</v>
       </c>
-      <c r="E63" s="248"/>
-      <c r="F63" s="248"/>
-      <c r="G63" s="248"/>
-      <c r="H63" s="248"/>
-      <c r="I63" s="248"/>
+      <c r="E63" s="247"/>
+      <c r="F63" s="247"/>
+      <c r="G63" s="247"/>
+      <c r="H63" s="247"/>
+      <c r="I63" s="247"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C64" s="247"/>
-      <c r="D64" s="248"/>
-      <c r="E64" s="248"/>
-      <c r="F64" s="248"/>
-      <c r="G64" s="248"/>
-      <c r="H64" s="248"/>
-      <c r="I64" s="248"/>
+      <c r="C64" s="246"/>
+      <c r="D64" s="247"/>
+      <c r="E64" s="247"/>
+      <c r="F64" s="247"/>
+      <c r="G64" s="247"/>
+      <c r="H64" s="247"/>
+      <c r="I64" s="247"/>
     </row>
     <row r="65" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="247" t="s">
+      <c r="C65" s="246" t="s">
         <v>125</v>
       </c>
-      <c r="D65" s="248" t="s">
+      <c r="D65" s="247" t="s">
         <v>109</v>
       </c>
-      <c r="E65" s="248"/>
-      <c r="F65" s="248"/>
-      <c r="G65" s="248"/>
-      <c r="H65" s="248"/>
-      <c r="I65" s="248"/>
+      <c r="E65" s="247"/>
+      <c r="F65" s="247"/>
+      <c r="G65" s="247"/>
+      <c r="H65" s="247"/>
+      <c r="I65" s="247"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C66" s="247"/>
-      <c r="D66" s="248"/>
-      <c r="E66" s="248"/>
-      <c r="F66" s="248"/>
-      <c r="G66" s="248"/>
-      <c r="H66" s="248"/>
-      <c r="I66" s="248"/>
+      <c r="C66" s="246"/>
+      <c r="D66" s="247"/>
+      <c r="E66" s="247"/>
+      <c r="F66" s="247"/>
+      <c r="G66" s="247"/>
+      <c r="H66" s="247"/>
+      <c r="I66" s="247"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C67" s="247"/>
-      <c r="D67" s="248"/>
-      <c r="E67" s="248"/>
-      <c r="F67" s="248"/>
-      <c r="G67" s="248"/>
-      <c r="H67" s="248"/>
-      <c r="I67" s="248"/>
+      <c r="C67" s="246"/>
+      <c r="D67" s="247"/>
+      <c r="E67" s="247"/>
+      <c r="F67" s="247"/>
+      <c r="G67" s="247"/>
+      <c r="H67" s="247"/>
+      <c r="I67" s="247"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C68" s="247" t="s">
+      <c r="C68" s="246" t="s">
         <v>126</v>
       </c>
-      <c r="D68" s="248" t="s">
+      <c r="D68" s="247" t="s">
         <v>110</v>
       </c>
-      <c r="E68" s="248"/>
-      <c r="F68" s="248"/>
-      <c r="G68" s="248"/>
-      <c r="H68" s="248"/>
-      <c r="I68" s="248"/>
+      <c r="E68" s="247"/>
+      <c r="F68" s="247"/>
+      <c r="G68" s="247"/>
+      <c r="H68" s="247"/>
+      <c r="I68" s="247"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C69" s="247"/>
-      <c r="D69" s="248"/>
-      <c r="E69" s="248"/>
-      <c r="F69" s="248"/>
-      <c r="G69" s="248"/>
-      <c r="H69" s="248"/>
-      <c r="I69" s="248"/>
+      <c r="C69" s="246"/>
+      <c r="D69" s="247"/>
+      <c r="E69" s="247"/>
+      <c r="F69" s="247"/>
+      <c r="G69" s="247"/>
+      <c r="H69" s="247"/>
+      <c r="I69" s="247"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C70" s="247"/>
-      <c r="D70" s="248"/>
-      <c r="E70" s="248"/>
-      <c r="F70" s="248"/>
-      <c r="G70" s="248"/>
-      <c r="H70" s="248"/>
-      <c r="I70" s="248"/>
+      <c r="C70" s="246"/>
+      <c r="D70" s="247"/>
+      <c r="E70" s="247"/>
+      <c r="F70" s="247"/>
+      <c r="G70" s="247"/>
+      <c r="H70" s="247"/>
+      <c r="I70" s="247"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
@@ -9904,40 +9913,40 @@
       <c r="C75" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D75" s="246" t="s">
+      <c r="D75" s="248" t="s">
         <v>34</v>
       </c>
-      <c r="E75" s="246"/>
-      <c r="F75" s="246"/>
-      <c r="G75" s="246"/>
-      <c r="H75" s="246"/>
-      <c r="I75" s="246"/>
+      <c r="E75" s="248"/>
+      <c r="F75" s="248"/>
+      <c r="G75" s="248"/>
+      <c r="H75" s="248"/>
+      <c r="I75" s="248"/>
     </row>
     <row r="76" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C76" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D76" s="246" t="s">
+      <c r="D76" s="248" t="s">
         <v>34</v>
       </c>
-      <c r="E76" s="246"/>
-      <c r="F76" s="246"/>
-      <c r="G76" s="246"/>
-      <c r="H76" s="246"/>
-      <c r="I76" s="246"/>
+      <c r="E76" s="248"/>
+      <c r="F76" s="248"/>
+      <c r="G76" s="248"/>
+      <c r="H76" s="248"/>
+      <c r="I76" s="248"/>
     </row>
     <row r="77" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C77" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="D77" s="246" t="s">
+      <c r="D77" s="248" t="s">
         <v>34</v>
       </c>
-      <c r="E77" s="246"/>
-      <c r="F77" s="246"/>
-      <c r="G77" s="246"/>
-      <c r="H77" s="246"/>
-      <c r="I77" s="246"/>
+      <c r="E77" s="248"/>
+      <c r="F77" s="248"/>
+      <c r="G77" s="248"/>
+      <c r="H77" s="248"/>
+      <c r="I77" s="248"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
@@ -9954,36 +9963,43 @@
       <c r="B91" t="s">
         <v>113</v>
       </c>
-      <c r="C91" s="225" t="s">
+      <c r="C91" s="217" t="s">
         <v>114</v>
       </c>
-      <c r="D91" s="225"/>
+      <c r="D91" s="217"/>
       <c r="F91" t="s">
         <v>115</v>
       </c>
-      <c r="G91" s="226">
+      <c r="G91" s="244">
         <f ca="1">TODAY()</f>
-        <v>45315</v>
-      </c>
-      <c r="H91" s="226"/>
-      <c r="I91" s="226"/>
+        <v>45357</v>
+      </c>
+      <c r="H91" s="244"/>
+      <c r="I91" s="244"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G92" s="138"/>
-      <c r="H92" s="138"/>
+      <c r="G92" s="153"/>
+      <c r="H92" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="D75:I75"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:I60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:I62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:I64"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="D65:I67"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="D68:I70"/>
+    <mergeCell ref="D74:I74"/>
     <mergeCell ref="D58:I58"/>
     <mergeCell ref="B23:J23"/>
     <mergeCell ref="C24:J24"/>
@@ -9997,23 +10013,16 @@
     <mergeCell ref="C36:C38"/>
     <mergeCell ref="D36:I38"/>
     <mergeCell ref="C56:J56"/>
-    <mergeCell ref="D75:I75"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:I60"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:I62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:I64"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="D65:I67"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="D68:I70"/>
-    <mergeCell ref="D74:I74"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B20:I20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{6E9829A0-4BB3-4C8C-A320-546D81175A58}"/>
@@ -10045,7 +10054,7 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f ca="1">TODAY()</f>
-        <v>45315</v>
+        <v>45357</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -10082,28 +10091,28 @@
       <c r="G13" s="11"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="182" t="s">
+      <c r="A15" s="170" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="182"/>
-      <c r="C15" s="182"/>
-      <c r="D15" s="182"/>
-      <c r="E15" s="182"/>
-      <c r="F15" s="182"/>
-      <c r="G15" s="182"/>
-      <c r="H15" s="182"/>
-      <c r="I15" s="182"/>
+      <c r="B15" s="170"/>
+      <c r="C15" s="170"/>
+      <c r="D15" s="170"/>
+      <c r="E15" s="170"/>
+      <c r="F15" s="170"/>
+      <c r="G15" s="170"/>
+      <c r="H15" s="170"/>
+      <c r="I15" s="170"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="182"/>
-      <c r="B16" s="182"/>
-      <c r="C16" s="182"/>
-      <c r="D16" s="182"/>
-      <c r="E16" s="182"/>
-      <c r="F16" s="182"/>
-      <c r="G16" s="182"/>
-      <c r="H16" s="182"/>
-      <c r="I16" s="182"/>
+      <c r="A16" s="170"/>
+      <c r="B16" s="170"/>
+      <c r="C16" s="170"/>
+      <c r="D16" s="170"/>
+      <c r="E16" s="170"/>
+      <c r="F16" s="170"/>
+      <c r="G16" s="170"/>
+      <c r="H16" s="170"/>
+      <c r="I16" s="170"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
@@ -10130,15 +10139,15 @@
       <c r="B21" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="154" t="s">
+      <c r="C21" s="136" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="154"/>
-      <c r="E21" s="154"/>
-      <c r="F21" s="154"/>
-      <c r="G21" s="154"/>
-      <c r="H21" s="154"/>
-      <c r="I21" s="154"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="136"/>
+      <c r="G21" s="136"/>
+      <c r="H21" s="136"/>
+      <c r="I21" s="136"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
@@ -10163,15 +10172,15 @@
       <c r="B24" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="154" t="s">
+      <c r="C24" s="136" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="154"/>
-      <c r="E24" s="154"/>
-      <c r="F24" s="154"/>
-      <c r="G24" s="154"/>
-      <c r="H24" s="154"/>
-      <c r="I24" s="154"/>
+      <c r="D24" s="136"/>
+      <c r="E24" s="136"/>
+      <c r="F24" s="136"/>
+      <c r="G24" s="136"/>
+      <c r="H24" s="136"/>
+      <c r="I24" s="136"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
@@ -10212,16 +10221,16 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
-      <c r="B31" s="154" t="s">
+      <c r="B31" s="136" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="154"/>
-      <c r="D31" s="154"/>
-      <c r="E31" s="154"/>
-      <c r="F31" s="154"/>
-      <c r="G31" s="154"/>
-      <c r="H31" s="154"/>
-      <c r="I31" s="154"/>
+      <c r="C31" s="136"/>
+      <c r="D31" s="136"/>
+      <c r="E31" s="136"/>
+      <c r="F31" s="136"/>
+      <c r="G31" s="136"/>
+      <c r="H31" s="136"/>
+      <c r="I31" s="136"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
@@ -10311,48 +10320,48 @@
       <c r="D43" s="15"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="154" t="s">
+      <c r="B45" s="136" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="154"/>
-      <c r="D45" s="154"/>
-      <c r="E45" s="154"/>
-      <c r="F45" s="154"/>
-      <c r="G45" s="154"/>
-      <c r="H45" s="154"/>
-      <c r="I45" s="154"/>
+      <c r="C45" s="136"/>
+      <c r="D45" s="136"/>
+      <c r="E45" s="136"/>
+      <c r="F45" s="136"/>
+      <c r="G45" s="136"/>
+      <c r="H45" s="136"/>
+      <c r="I45" s="136"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="182" t="s">
+      <c r="B46" s="170" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="182"/>
-      <c r="D46" s="182"/>
-      <c r="E46" s="182"/>
-      <c r="F46" s="182"/>
-      <c r="G46" s="182"/>
-      <c r="H46" s="182"/>
-      <c r="I46" s="182"/>
+      <c r="C46" s="170"/>
+      <c r="D46" s="170"/>
+      <c r="E46" s="170"/>
+      <c r="F46" s="170"/>
+      <c r="G46" s="170"/>
+      <c r="H46" s="170"/>
+      <c r="I46" s="170"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="182"/>
-      <c r="C47" s="182"/>
-      <c r="D47" s="182"/>
-      <c r="E47" s="182"/>
-      <c r="F47" s="182"/>
-      <c r="G47" s="182"/>
-      <c r="H47" s="182"/>
-      <c r="I47" s="182"/>
+      <c r="B47" s="170"/>
+      <c r="C47" s="170"/>
+      <c r="D47" s="170"/>
+      <c r="E47" s="170"/>
+      <c r="F47" s="170"/>
+      <c r="G47" s="170"/>
+      <c r="H47" s="170"/>
+      <c r="I47" s="170"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="182"/>
-      <c r="C48" s="182"/>
-      <c r="D48" s="182"/>
-      <c r="E48" s="182"/>
-      <c r="F48" s="182"/>
-      <c r="G48" s="182"/>
-      <c r="H48" s="182"/>
-      <c r="I48" s="182"/>
+      <c r="B48" s="170"/>
+      <c r="C48" s="170"/>
+      <c r="D48" s="170"/>
+      <c r="E48" s="170"/>
+      <c r="F48" s="170"/>
+      <c r="G48" s="170"/>
+      <c r="H48" s="170"/>
+      <c r="I48" s="170"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
@@ -10365,16 +10374,16 @@
       <c r="D57" s="15"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="154" t="s">
+      <c r="B59" s="136" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="154"/>
-      <c r="D59" s="154"/>
-      <c r="E59" s="154"/>
-      <c r="F59" s="154"/>
-      <c r="G59" s="154"/>
-      <c r="H59" s="154"/>
-      <c r="I59" s="154"/>
+      <c r="C59" s="136"/>
+      <c r="D59" s="136"/>
+      <c r="E59" s="136"/>
+      <c r="F59" s="136"/>
+      <c r="G59" s="136"/>
+      <c r="H59" s="136"/>
+      <c r="I59" s="136"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
@@ -10388,16 +10397,16 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="154" t="s">
+      <c r="B62" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="C62" s="154"/>
-      <c r="D62" s="154"/>
-      <c r="E62" s="154"/>
-      <c r="F62" s="154"/>
-      <c r="G62" s="154"/>
-      <c r="H62" s="154"/>
-      <c r="I62" s="154"/>
+      <c r="C62" s="136"/>
+      <c r="D62" s="136"/>
+      <c r="E62" s="136"/>
+      <c r="F62" s="136"/>
+      <c r="G62" s="136"/>
+      <c r="H62" s="136"/>
+      <c r="I62" s="136"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
@@ -10420,221 +10429,234 @@
       <c r="B67" s="1"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="182" t="s">
+      <c r="B68" s="170" t="s">
         <v>73</v>
       </c>
-      <c r="C68" s="182"/>
-      <c r="D68" s="182"/>
-      <c r="E68" s="182"/>
-      <c r="F68" s="182"/>
-      <c r="G68" s="182"/>
-      <c r="H68" s="182"/>
-      <c r="I68" s="182"/>
+      <c r="C68" s="170"/>
+      <c r="D68" s="170"/>
+      <c r="E68" s="170"/>
+      <c r="F68" s="170"/>
+      <c r="G68" s="170"/>
+      <c r="H68" s="170"/>
+      <c r="I68" s="170"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="182"/>
-      <c r="C69" s="182"/>
-      <c r="D69" s="182"/>
-      <c r="E69" s="182"/>
-      <c r="F69" s="182"/>
-      <c r="G69" s="182"/>
-      <c r="H69" s="182"/>
-      <c r="I69" s="182"/>
+      <c r="B69" s="170"/>
+      <c r="C69" s="170"/>
+      <c r="D69" s="170"/>
+      <c r="E69" s="170"/>
+      <c r="F69" s="170"/>
+      <c r="G69" s="170"/>
+      <c r="H69" s="170"/>
+      <c r="I69" s="170"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="251"/>
-      <c r="C71" s="252"/>
-      <c r="D71" s="255" t="s">
+      <c r="B71" s="257"/>
+      <c r="C71" s="258"/>
+      <c r="D71" s="261" t="s">
         <v>74</v>
       </c>
-      <c r="E71" s="256"/>
-      <c r="F71" s="255" t="s">
+      <c r="E71" s="262"/>
+      <c r="F71" s="261" t="s">
         <v>75</v>
       </c>
-      <c r="G71" s="256"/>
-      <c r="H71" s="255" t="s">
+      <c r="G71" s="262"/>
+      <c r="H71" s="261" t="s">
         <v>76</v>
       </c>
-      <c r="I71" s="256"/>
+      <c r="I71" s="262"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="253"/>
-      <c r="C72" s="254"/>
-      <c r="D72" s="257"/>
-      <c r="E72" s="258"/>
-      <c r="F72" s="257"/>
-      <c r="G72" s="258"/>
-      <c r="H72" s="257"/>
-      <c r="I72" s="258"/>
+      <c r="B72" s="259"/>
+      <c r="C72" s="260"/>
+      <c r="D72" s="263"/>
+      <c r="E72" s="264"/>
+      <c r="F72" s="263"/>
+      <c r="G72" s="264"/>
+      <c r="H72" s="263"/>
+      <c r="I72" s="264"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="262" t="s">
+      <c r="B73" s="253" t="s">
         <v>77</v>
       </c>
-      <c r="C73" s="263"/>
-      <c r="D73" s="259"/>
-      <c r="E73" s="260"/>
-      <c r="F73" s="261"/>
-      <c r="G73" s="260"/>
-      <c r="H73" s="261"/>
-      <c r="I73" s="260"/>
+      <c r="C73" s="254"/>
+      <c r="D73" s="250"/>
+      <c r="E73" s="251"/>
+      <c r="F73" s="252"/>
+      <c r="G73" s="251"/>
+      <c r="H73" s="252"/>
+      <c r="I73" s="251"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="182" t="s">
+      <c r="B75" s="170" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="182"/>
-      <c r="D75" s="182"/>
-      <c r="E75" s="182"/>
-      <c r="F75" s="182"/>
-      <c r="G75" s="182"/>
-      <c r="H75" s="182"/>
-      <c r="I75" s="182"/>
+      <c r="C75" s="170"/>
+      <c r="D75" s="170"/>
+      <c r="E75" s="170"/>
+      <c r="F75" s="170"/>
+      <c r="G75" s="170"/>
+      <c r="H75" s="170"/>
+      <c r="I75" s="170"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="182"/>
-      <c r="C76" s="182"/>
-      <c r="D76" s="182"/>
-      <c r="E76" s="182"/>
-      <c r="F76" s="182"/>
-      <c r="G76" s="182"/>
-      <c r="H76" s="182"/>
-      <c r="I76" s="182"/>
+      <c r="B76" s="170"/>
+      <c r="C76" s="170"/>
+      <c r="D76" s="170"/>
+      <c r="E76" s="170"/>
+      <c r="F76" s="170"/>
+      <c r="G76" s="170"/>
+      <c r="H76" s="170"/>
+      <c r="I76" s="170"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>79</v>
       </c>
-      <c r="E78" s="264" t="s">
+      <c r="E78" s="255" t="s">
         <v>81</v>
       </c>
-      <c r="F78" s="265"/>
-      <c r="G78" s="265"/>
-      <c r="H78" s="265"/>
+      <c r="F78" s="256"/>
+      <c r="G78" s="256"/>
+      <c r="H78" s="256"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>80</v>
       </c>
-      <c r="E79" s="265"/>
-      <c r="F79" s="265"/>
-      <c r="G79" s="265"/>
-      <c r="H79" s="265"/>
+      <c r="E79" s="256"/>
+      <c r="F79" s="256"/>
+      <c r="G79" s="256"/>
+      <c r="H79" s="256"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="137" t="s">
+      <c r="A81" s="139" t="s">
         <v>82</v>
       </c>
-      <c r="B81" s="137"/>
-      <c r="C81" s="137"/>
-      <c r="D81" s="137"/>
-      <c r="E81" s="137"/>
-      <c r="F81" s="137"/>
-      <c r="G81" s="137"/>
-      <c r="H81" s="137"/>
-      <c r="I81" s="137"/>
+      <c r="B81" s="139"/>
+      <c r="C81" s="139"/>
+      <c r="D81" s="139"/>
+      <c r="E81" s="139"/>
+      <c r="F81" s="139"/>
+      <c r="G81" s="139"/>
+      <c r="H81" s="139"/>
+      <c r="I81" s="139"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="137"/>
-      <c r="B82" s="137"/>
-      <c r="C82" s="137"/>
-      <c r="D82" s="137"/>
-      <c r="E82" s="137"/>
-      <c r="F82" s="137"/>
-      <c r="G82" s="137"/>
-      <c r="H82" s="137"/>
-      <c r="I82" s="137"/>
+      <c r="A82" s="139"/>
+      <c r="B82" s="139"/>
+      <c r="C82" s="139"/>
+      <c r="D82" s="139"/>
+      <c r="E82" s="139"/>
+      <c r="F82" s="139"/>
+      <c r="G82" s="139"/>
+      <c r="H82" s="139"/>
+      <c r="I82" s="139"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="137"/>
-      <c r="B83" s="137"/>
-      <c r="C83" s="137"/>
-      <c r="D83" s="137"/>
-      <c r="E83" s="137"/>
-      <c r="F83" s="137"/>
-      <c r="G83" s="137"/>
-      <c r="H83" s="137"/>
-      <c r="I83" s="137"/>
+      <c r="A83" s="139"/>
+      <c r="B83" s="139"/>
+      <c r="C83" s="139"/>
+      <c r="D83" s="139"/>
+      <c r="E83" s="139"/>
+      <c r="F83" s="139"/>
+      <c r="G83" s="139"/>
+      <c r="H83" s="139"/>
+      <c r="I83" s="139"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="137"/>
-      <c r="B84" s="137"/>
-      <c r="C84" s="137"/>
-      <c r="D84" s="137"/>
-      <c r="E84" s="137"/>
-      <c r="F84" s="137"/>
-      <c r="G84" s="137"/>
-      <c r="H84" s="137"/>
-      <c r="I84" s="137"/>
+      <c r="A84" s="139"/>
+      <c r="B84" s="139"/>
+      <c r="C84" s="139"/>
+      <c r="D84" s="139"/>
+      <c r="E84" s="139"/>
+      <c r="F84" s="139"/>
+      <c r="G84" s="139"/>
+      <c r="H84" s="139"/>
+      <c r="I84" s="139"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="137"/>
-      <c r="B85" s="137"/>
-      <c r="C85" s="137"/>
-      <c r="D85" s="137"/>
-      <c r="E85" s="137"/>
-      <c r="F85" s="137"/>
-      <c r="G85" s="137"/>
-      <c r="H85" s="137"/>
-      <c r="I85" s="137"/>
+      <c r="A85" s="139"/>
+      <c r="B85" s="139"/>
+      <c r="C85" s="139"/>
+      <c r="D85" s="139"/>
+      <c r="E85" s="139"/>
+      <c r="F85" s="139"/>
+      <c r="G85" s="139"/>
+      <c r="H85" s="139"/>
+      <c r="I85" s="139"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="137"/>
-      <c r="B86" s="137"/>
-      <c r="C86" s="137"/>
-      <c r="D86" s="137"/>
-      <c r="E86" s="137"/>
-      <c r="F86" s="137"/>
-      <c r="G86" s="137"/>
-      <c r="H86" s="137"/>
-      <c r="I86" s="137"/>
+      <c r="A86" s="139"/>
+      <c r="B86" s="139"/>
+      <c r="C86" s="139"/>
+      <c r="D86" s="139"/>
+      <c r="E86" s="139"/>
+      <c r="F86" s="139"/>
+      <c r="G86" s="139"/>
+      <c r="H86" s="139"/>
+      <c r="I86" s="139"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="137"/>
-      <c r="B87" s="137"/>
-      <c r="C87" s="137"/>
-      <c r="D87" s="137"/>
-      <c r="E87" s="137"/>
-      <c r="F87" s="137"/>
-      <c r="G87" s="137"/>
-      <c r="H87" s="137"/>
-      <c r="I87" s="137"/>
+      <c r="A87" s="139"/>
+      <c r="B87" s="139"/>
+      <c r="C87" s="139"/>
+      <c r="D87" s="139"/>
+      <c r="E87" s="139"/>
+      <c r="F87" s="139"/>
+      <c r="G87" s="139"/>
+      <c r="H87" s="139"/>
+      <c r="I87" s="139"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="137"/>
-      <c r="B88" s="137"/>
-      <c r="C88" s="137"/>
-      <c r="D88" s="137"/>
-      <c r="E88" s="137"/>
-      <c r="F88" s="137"/>
-      <c r="G88" s="137"/>
-      <c r="H88" s="137"/>
-      <c r="I88" s="137"/>
+      <c r="A88" s="139"/>
+      <c r="B88" s="139"/>
+      <c r="C88" s="139"/>
+      <c r="D88" s="139"/>
+      <c r="E88" s="139"/>
+      <c r="F88" s="139"/>
+      <c r="G88" s="139"/>
+      <c r="H88" s="139"/>
+      <c r="I88" s="139"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="137"/>
-      <c r="B89" s="137"/>
-      <c r="C89" s="137"/>
-      <c r="D89" s="137"/>
-      <c r="E89" s="137"/>
-      <c r="F89" s="137"/>
-      <c r="G89" s="137"/>
-      <c r="H89" s="137"/>
-      <c r="I89" s="137"/>
+      <c r="A89" s="139"/>
+      <c r="B89" s="139"/>
+      <c r="C89" s="139"/>
+      <c r="D89" s="139"/>
+      <c r="E89" s="139"/>
+      <c r="F89" s="139"/>
+      <c r="G89" s="139"/>
+      <c r="H89" s="139"/>
+      <c r="I89" s="139"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="137"/>
-      <c r="B90" s="137"/>
-      <c r="C90" s="137"/>
-      <c r="D90" s="137"/>
-      <c r="E90" s="137"/>
-      <c r="F90" s="137"/>
-      <c r="G90" s="137"/>
-      <c r="H90" s="137"/>
-      <c r="I90" s="137"/>
+      <c r="A90" s="139"/>
+      <c r="B90" s="139"/>
+      <c r="C90" s="139"/>
+      <c r="D90" s="139"/>
+      <c r="E90" s="139"/>
+      <c r="F90" s="139"/>
+      <c r="G90" s="139"/>
+      <c r="H90" s="139"/>
+      <c r="I90" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B46:I48"/>
+    <mergeCell ref="A15:I16"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="B59:I59"/>
+    <mergeCell ref="B62:I62"/>
+    <mergeCell ref="B68:I69"/>
+    <mergeCell ref="B71:C72"/>
+    <mergeCell ref="D71:E72"/>
+    <mergeCell ref="F71:G72"/>
+    <mergeCell ref="H71:I72"/>
     <mergeCell ref="A81:I90"/>
     <mergeCell ref="D73:E73"/>
     <mergeCell ref="F73:G73"/>
@@ -10642,19 +10664,6 @@
     <mergeCell ref="B73:C73"/>
     <mergeCell ref="B75:I76"/>
     <mergeCell ref="E78:H79"/>
-    <mergeCell ref="B59:I59"/>
-    <mergeCell ref="B62:I62"/>
-    <mergeCell ref="B68:I69"/>
-    <mergeCell ref="B71:C72"/>
-    <mergeCell ref="D71:E72"/>
-    <mergeCell ref="F71:G72"/>
-    <mergeCell ref="H71:I72"/>
-    <mergeCell ref="B46:I48"/>
-    <mergeCell ref="A15:I16"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B45:I45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10679,7 +10688,7 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f ca="1">TODAY()</f>
-        <v>45315</v>
+        <v>45357</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -10716,28 +10725,28 @@
       <c r="G13" s="11"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="182" t="s">
+      <c r="A15" s="170" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="182"/>
-      <c r="C15" s="182"/>
-      <c r="D15" s="182"/>
-      <c r="E15" s="182"/>
-      <c r="F15" s="182"/>
-      <c r="G15" s="182"/>
-      <c r="H15" s="182"/>
-      <c r="I15" s="182"/>
+      <c r="B15" s="170"/>
+      <c r="C15" s="170"/>
+      <c r="D15" s="170"/>
+      <c r="E15" s="170"/>
+      <c r="F15" s="170"/>
+      <c r="G15" s="170"/>
+      <c r="H15" s="170"/>
+      <c r="I15" s="170"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="182"/>
-      <c r="B16" s="182"/>
-      <c r="C16" s="182"/>
-      <c r="D16" s="182"/>
-      <c r="E16" s="182"/>
-      <c r="F16" s="182"/>
-      <c r="G16" s="182"/>
-      <c r="H16" s="182"/>
-      <c r="I16" s="182"/>
+      <c r="A16" s="170"/>
+      <c r="B16" s="170"/>
+      <c r="C16" s="170"/>
+      <c r="D16" s="170"/>
+      <c r="E16" s="170"/>
+      <c r="F16" s="170"/>
+      <c r="G16" s="170"/>
+      <c r="H16" s="170"/>
+      <c r="I16" s="170"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
@@ -10764,15 +10773,15 @@
       <c r="B21" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="154" t="s">
+      <c r="C21" s="136" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="154"/>
-      <c r="E21" s="154"/>
-      <c r="F21" s="154"/>
-      <c r="G21" s="154"/>
-      <c r="H21" s="154"/>
-      <c r="I21" s="154"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="136"/>
+      <c r="G21" s="136"/>
+      <c r="H21" s="136"/>
+      <c r="I21" s="136"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
@@ -10797,15 +10806,15 @@
       <c r="B24" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="154" t="s">
+      <c r="C24" s="136" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="154"/>
-      <c r="E24" s="154"/>
-      <c r="F24" s="154"/>
-      <c r="G24" s="154"/>
-      <c r="H24" s="154"/>
-      <c r="I24" s="154"/>
+      <c r="D24" s="136"/>
+      <c r="E24" s="136"/>
+      <c r="F24" s="136"/>
+      <c r="G24" s="136"/>
+      <c r="H24" s="136"/>
+      <c r="I24" s="136"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
@@ -10846,16 +10855,16 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
-      <c r="B31" s="154" t="s">
+      <c r="B31" s="136" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="154"/>
-      <c r="D31" s="154"/>
-      <c r="E31" s="154"/>
-      <c r="F31" s="154"/>
-      <c r="G31" s="154"/>
-      <c r="H31" s="154"/>
-      <c r="I31" s="154"/>
+      <c r="C31" s="136"/>
+      <c r="D31" s="136"/>
+      <c r="E31" s="136"/>
+      <c r="F31" s="136"/>
+      <c r="G31" s="136"/>
+      <c r="H31" s="136"/>
+      <c r="I31" s="136"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
@@ -10945,48 +10954,48 @@
       <c r="D43" s="15"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="154" t="s">
+      <c r="B45" s="136" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="154"/>
-      <c r="D45" s="154"/>
-      <c r="E45" s="154"/>
-      <c r="F45" s="154"/>
-      <c r="G45" s="154"/>
-      <c r="H45" s="154"/>
-      <c r="I45" s="154"/>
+      <c r="C45" s="136"/>
+      <c r="D45" s="136"/>
+      <c r="E45" s="136"/>
+      <c r="F45" s="136"/>
+      <c r="G45" s="136"/>
+      <c r="H45" s="136"/>
+      <c r="I45" s="136"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="182" t="s">
+      <c r="B46" s="170" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="182"/>
-      <c r="D46" s="182"/>
-      <c r="E46" s="182"/>
-      <c r="F46" s="182"/>
-      <c r="G46" s="182"/>
-      <c r="H46" s="182"/>
-      <c r="I46" s="182"/>
+      <c r="C46" s="170"/>
+      <c r="D46" s="170"/>
+      <c r="E46" s="170"/>
+      <c r="F46" s="170"/>
+      <c r="G46" s="170"/>
+      <c r="H46" s="170"/>
+      <c r="I46" s="170"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="182"/>
-      <c r="C47" s="182"/>
-      <c r="D47" s="182"/>
-      <c r="E47" s="182"/>
-      <c r="F47" s="182"/>
-      <c r="G47" s="182"/>
-      <c r="H47" s="182"/>
-      <c r="I47" s="182"/>
+      <c r="B47" s="170"/>
+      <c r="C47" s="170"/>
+      <c r="D47" s="170"/>
+      <c r="E47" s="170"/>
+      <c r="F47" s="170"/>
+      <c r="G47" s="170"/>
+      <c r="H47" s="170"/>
+      <c r="I47" s="170"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="182"/>
-      <c r="C48" s="182"/>
-      <c r="D48" s="182"/>
-      <c r="E48" s="182"/>
-      <c r="F48" s="182"/>
-      <c r="G48" s="182"/>
-      <c r="H48" s="182"/>
-      <c r="I48" s="182"/>
+      <c r="B48" s="170"/>
+      <c r="C48" s="170"/>
+      <c r="D48" s="170"/>
+      <c r="E48" s="170"/>
+      <c r="F48" s="170"/>
+      <c r="G48" s="170"/>
+      <c r="H48" s="170"/>
+      <c r="I48" s="170"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
@@ -10999,16 +11008,16 @@
       <c r="D57" s="15"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="154" t="s">
+      <c r="B59" s="136" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="154"/>
-      <c r="D59" s="154"/>
-      <c r="E59" s="154"/>
-      <c r="F59" s="154"/>
-      <c r="G59" s="154"/>
-      <c r="H59" s="154"/>
-      <c r="I59" s="154"/>
+      <c r="C59" s="136"/>
+      <c r="D59" s="136"/>
+      <c r="E59" s="136"/>
+      <c r="F59" s="136"/>
+      <c r="G59" s="136"/>
+      <c r="H59" s="136"/>
+      <c r="I59" s="136"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
@@ -11022,16 +11031,16 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="154" t="s">
+      <c r="B62" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="C62" s="154"/>
-      <c r="D62" s="154"/>
-      <c r="E62" s="154"/>
-      <c r="F62" s="154"/>
-      <c r="G62" s="154"/>
-      <c r="H62" s="154"/>
-      <c r="I62" s="154"/>
+      <c r="C62" s="136"/>
+      <c r="D62" s="136"/>
+      <c r="E62" s="136"/>
+      <c r="F62" s="136"/>
+      <c r="G62" s="136"/>
+      <c r="H62" s="136"/>
+      <c r="I62" s="136"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
@@ -11054,227 +11063,228 @@
       <c r="B67" s="1"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="182" t="s">
+      <c r="B68" s="170" t="s">
         <v>73</v>
       </c>
-      <c r="C68" s="182"/>
-      <c r="D68" s="182"/>
-      <c r="E68" s="182"/>
-      <c r="F68" s="182"/>
-      <c r="G68" s="182"/>
-      <c r="H68" s="182"/>
-      <c r="I68" s="182"/>
+      <c r="C68" s="170"/>
+      <c r="D68" s="170"/>
+      <c r="E68" s="170"/>
+      <c r="F68" s="170"/>
+      <c r="G68" s="170"/>
+      <c r="H68" s="170"/>
+      <c r="I68" s="170"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="182"/>
-      <c r="C69" s="182"/>
-      <c r="D69" s="182"/>
-      <c r="E69" s="182"/>
-      <c r="F69" s="182"/>
-      <c r="G69" s="182"/>
-      <c r="H69" s="182"/>
-      <c r="I69" s="182"/>
+      <c r="B69" s="170"/>
+      <c r="C69" s="170"/>
+      <c r="D69" s="170"/>
+      <c r="E69" s="170"/>
+      <c r="F69" s="170"/>
+      <c r="G69" s="170"/>
+      <c r="H69" s="170"/>
+      <c r="I69" s="170"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="251"/>
-      <c r="C71" s="252"/>
-      <c r="D71" s="255" t="s">
+      <c r="B71" s="257"/>
+      <c r="C71" s="258"/>
+      <c r="D71" s="261" t="s">
         <v>74</v>
       </c>
-      <c r="E71" s="256"/>
-      <c r="F71" s="255" t="s">
+      <c r="E71" s="262"/>
+      <c r="F71" s="261" t="s">
         <v>75</v>
       </c>
-      <c r="G71" s="256"/>
-      <c r="H71" s="255" t="s">
+      <c r="G71" s="262"/>
+      <c r="H71" s="261" t="s">
         <v>76</v>
       </c>
-      <c r="I71" s="256"/>
+      <c r="I71" s="262"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="253"/>
-      <c r="C72" s="254"/>
-      <c r="D72" s="257"/>
-      <c r="E72" s="258"/>
-      <c r="F72" s="257"/>
-      <c r="G72" s="258"/>
-      <c r="H72" s="257"/>
-      <c r="I72" s="258"/>
+      <c r="B72" s="259"/>
+      <c r="C72" s="260"/>
+      <c r="D72" s="263"/>
+      <c r="E72" s="264"/>
+      <c r="F72" s="263"/>
+      <c r="G72" s="264"/>
+      <c r="H72" s="263"/>
+      <c r="I72" s="264"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="262" t="s">
+      <c r="B73" s="253" t="s">
         <v>77</v>
       </c>
-      <c r="C73" s="263"/>
-      <c r="D73" s="259"/>
-      <c r="E73" s="260"/>
-      <c r="F73" s="261"/>
-      <c r="G73" s="260"/>
-      <c r="H73" s="261"/>
-      <c r="I73" s="260"/>
+      <c r="C73" s="254"/>
+      <c r="D73" s="250"/>
+      <c r="E73" s="251"/>
+      <c r="F73" s="252"/>
+      <c r="G73" s="251"/>
+      <c r="H73" s="252"/>
+      <c r="I73" s="251"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="182" t="s">
+      <c r="B75" s="170" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="182"/>
-      <c r="D75" s="182"/>
-      <c r="E75" s="182"/>
-      <c r="F75" s="182"/>
-      <c r="G75" s="182"/>
-      <c r="H75" s="182"/>
-      <c r="I75" s="182"/>
+      <c r="C75" s="170"/>
+      <c r="D75" s="170"/>
+      <c r="E75" s="170"/>
+      <c r="F75" s="170"/>
+      <c r="G75" s="170"/>
+      <c r="H75" s="170"/>
+      <c r="I75" s="170"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="182"/>
-      <c r="C76" s="182"/>
-      <c r="D76" s="182"/>
-      <c r="E76" s="182"/>
-      <c r="F76" s="182"/>
-      <c r="G76" s="182"/>
-      <c r="H76" s="182"/>
-      <c r="I76" s="182"/>
+      <c r="B76" s="170"/>
+      <c r="C76" s="170"/>
+      <c r="D76" s="170"/>
+      <c r="E76" s="170"/>
+      <c r="F76" s="170"/>
+      <c r="G76" s="170"/>
+      <c r="H76" s="170"/>
+      <c r="I76" s="170"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>79</v>
       </c>
-      <c r="E78" s="264" t="s">
+      <c r="E78" s="255" t="s">
         <v>81</v>
       </c>
-      <c r="F78" s="265"/>
-      <c r="G78" s="265"/>
-      <c r="H78" s="265"/>
+      <c r="F78" s="256"/>
+      <c r="G78" s="256"/>
+      <c r="H78" s="256"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>80</v>
       </c>
-      <c r="E79" s="265"/>
-      <c r="F79" s="265"/>
-      <c r="G79" s="265"/>
-      <c r="H79" s="265"/>
+      <c r="E79" s="256"/>
+      <c r="F79" s="256"/>
+      <c r="G79" s="256"/>
+      <c r="H79" s="256"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="137" t="s">
+      <c r="A81" s="139" t="s">
         <v>82</v>
       </c>
-      <c r="B81" s="137"/>
-      <c r="C81" s="137"/>
-      <c r="D81" s="137"/>
-      <c r="E81" s="137"/>
-      <c r="F81" s="137"/>
-      <c r="G81" s="137"/>
-      <c r="H81" s="137"/>
-      <c r="I81" s="137"/>
+      <c r="B81" s="139"/>
+      <c r="C81" s="139"/>
+      <c r="D81" s="139"/>
+      <c r="E81" s="139"/>
+      <c r="F81" s="139"/>
+      <c r="G81" s="139"/>
+      <c r="H81" s="139"/>
+      <c r="I81" s="139"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="137"/>
-      <c r="B82" s="137"/>
-      <c r="C82" s="137"/>
-      <c r="D82" s="137"/>
-      <c r="E82" s="137"/>
-      <c r="F82" s="137"/>
-      <c r="G82" s="137"/>
-      <c r="H82" s="137"/>
-      <c r="I82" s="137"/>
+      <c r="A82" s="139"/>
+      <c r="B82" s="139"/>
+      <c r="C82" s="139"/>
+      <c r="D82" s="139"/>
+      <c r="E82" s="139"/>
+      <c r="F82" s="139"/>
+      <c r="G82" s="139"/>
+      <c r="H82" s="139"/>
+      <c r="I82" s="139"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="137"/>
-      <c r="B83" s="137"/>
-      <c r="C83" s="137"/>
-      <c r="D83" s="137"/>
-      <c r="E83" s="137"/>
-      <c r="F83" s="137"/>
-      <c r="G83" s="137"/>
-      <c r="H83" s="137"/>
-      <c r="I83" s="137"/>
+      <c r="A83" s="139"/>
+      <c r="B83" s="139"/>
+      <c r="C83" s="139"/>
+      <c r="D83" s="139"/>
+      <c r="E83" s="139"/>
+      <c r="F83" s="139"/>
+      <c r="G83" s="139"/>
+      <c r="H83" s="139"/>
+      <c r="I83" s="139"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="137"/>
-      <c r="B84" s="137"/>
-      <c r="C84" s="137"/>
-      <c r="D84" s="137"/>
-      <c r="E84" s="137"/>
-      <c r="F84" s="137"/>
-      <c r="G84" s="137"/>
-      <c r="H84" s="137"/>
-      <c r="I84" s="137"/>
+      <c r="A84" s="139"/>
+      <c r="B84" s="139"/>
+      <c r="C84" s="139"/>
+      <c r="D84" s="139"/>
+      <c r="E84" s="139"/>
+      <c r="F84" s="139"/>
+      <c r="G84" s="139"/>
+      <c r="H84" s="139"/>
+      <c r="I84" s="139"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="137"/>
-      <c r="B85" s="137"/>
-      <c r="C85" s="137"/>
-      <c r="D85" s="137"/>
-      <c r="E85" s="137"/>
-      <c r="F85" s="137"/>
-      <c r="G85" s="137"/>
-      <c r="H85" s="137"/>
-      <c r="I85" s="137"/>
+      <c r="A85" s="139"/>
+      <c r="B85" s="139"/>
+      <c r="C85" s="139"/>
+      <c r="D85" s="139"/>
+      <c r="E85" s="139"/>
+      <c r="F85" s="139"/>
+      <c r="G85" s="139"/>
+      <c r="H85" s="139"/>
+      <c r="I85" s="139"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="137"/>
-      <c r="B86" s="137"/>
-      <c r="C86" s="137"/>
-      <c r="D86" s="137"/>
-      <c r="E86" s="137"/>
-      <c r="F86" s="137"/>
-      <c r="G86" s="137"/>
-      <c r="H86" s="137"/>
-      <c r="I86" s="137"/>
+      <c r="A86" s="139"/>
+      <c r="B86" s="139"/>
+      <c r="C86" s="139"/>
+      <c r="D86" s="139"/>
+      <c r="E86" s="139"/>
+      <c r="F86" s="139"/>
+      <c r="G86" s="139"/>
+      <c r="H86" s="139"/>
+      <c r="I86" s="139"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="137"/>
-      <c r="B87" s="137"/>
-      <c r="C87" s="137"/>
-      <c r="D87" s="137"/>
-      <c r="E87" s="137"/>
-      <c r="F87" s="137"/>
-      <c r="G87" s="137"/>
-      <c r="H87" s="137"/>
-      <c r="I87" s="137"/>
+      <c r="A87" s="139"/>
+      <c r="B87" s="139"/>
+      <c r="C87" s="139"/>
+      <c r="D87" s="139"/>
+      <c r="E87" s="139"/>
+      <c r="F87" s="139"/>
+      <c r="G87" s="139"/>
+      <c r="H87" s="139"/>
+      <c r="I87" s="139"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="137"/>
-      <c r="B88" s="137"/>
-      <c r="C88" s="137"/>
-      <c r="D88" s="137"/>
-      <c r="E88" s="137"/>
-      <c r="F88" s="137"/>
-      <c r="G88" s="137"/>
-      <c r="H88" s="137"/>
-      <c r="I88" s="137"/>
+      <c r="A88" s="139"/>
+      <c r="B88" s="139"/>
+      <c r="C88" s="139"/>
+      <c r="D88" s="139"/>
+      <c r="E88" s="139"/>
+      <c r="F88" s="139"/>
+      <c r="G88" s="139"/>
+      <c r="H88" s="139"/>
+      <c r="I88" s="139"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="137"/>
-      <c r="B89" s="137"/>
-      <c r="C89" s="137"/>
-      <c r="D89" s="137"/>
-      <c r="E89" s="137"/>
-      <c r="F89" s="137"/>
-      <c r="G89" s="137"/>
-      <c r="H89" s="137"/>
-      <c r="I89" s="137"/>
+      <c r="A89" s="139"/>
+      <c r="B89" s="139"/>
+      <c r="C89" s="139"/>
+      <c r="D89" s="139"/>
+      <c r="E89" s="139"/>
+      <c r="F89" s="139"/>
+      <c r="G89" s="139"/>
+      <c r="H89" s="139"/>
+      <c r="I89" s="139"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="137"/>
-      <c r="B90" s="137"/>
-      <c r="C90" s="137"/>
-      <c r="D90" s="137"/>
-      <c r="E90" s="137"/>
-      <c r="F90" s="137"/>
-      <c r="G90" s="137"/>
-      <c r="H90" s="137"/>
-      <c r="I90" s="137"/>
+      <c r="A90" s="139"/>
+      <c r="B90" s="139"/>
+      <c r="C90" s="139"/>
+      <c r="D90" s="139"/>
+      <c r="E90" s="139"/>
+      <c r="F90" s="139"/>
+      <c r="G90" s="139"/>
+      <c r="H90" s="139"/>
+      <c r="I90" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B46:I48"/>
-    <mergeCell ref="A15:I16"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="A81:I90"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="B75:I76"/>
+    <mergeCell ref="E78:H79"/>
     <mergeCell ref="B59:I59"/>
     <mergeCell ref="B62:I62"/>
     <mergeCell ref="B68:I69"/>
@@ -11282,13 +11292,12 @@
     <mergeCell ref="D71:E72"/>
     <mergeCell ref="F71:G72"/>
     <mergeCell ref="H71:I72"/>
-    <mergeCell ref="A81:I90"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="B75:I76"/>
-    <mergeCell ref="E78:H79"/>
+    <mergeCell ref="B46:I48"/>
+    <mergeCell ref="A15:I16"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B45:I45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
